--- a/raw_game_pulls/6197819_Play-By-Play for Morgan St. vs UMBC.xlsx
+++ b/raw_game_pulls/6197819_Play-By-Play for Morgan St. vs UMBC.xlsx
@@ -1,15 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27231"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mdona\repos\ncaa_2024\raw_game_pulls\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3094B0EF-602B-4782-94E5-9CD02645C7D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
@@ -664,30 +670,15 @@
     <t>UMBC Turnover by Saapp, Devan</t>
   </si>
   <si>
-    <t>3 Pointer MISSED by BEARS's Tabbs, Wynston</t>
-  </si>
-  <si>
     <t>UMBC Defensive REBOUND by Brown, Dion</t>
   </si>
   <si>
     <t>Slam Dunk GOOD by UMBC's Brown, Dion</t>
   </si>
   <si>
-    <t>BEARS Offensive REBOUND by Udemadu, Allen</t>
-  </si>
-  <si>
-    <t>Layup GOOD by BEARS's Udemadu, Allen</t>
-  </si>
-  <si>
     <t>UMBC Turnover by Smith, Khydarius</t>
   </si>
   <si>
-    <t>BEARS Steal by Edwards, Trent</t>
-  </si>
-  <si>
-    <t>BEARS Turnover by Edwards, Trent</t>
-  </si>
-  <si>
     <t>UMBC Steal by Valentine, Ace</t>
   </si>
   <si>
@@ -697,21 +688,12 @@
     <t>UMBC Assist by Valentine, Ace</t>
   </si>
   <si>
-    <t>3 Pointer MISSED by BEARS's Simpkins, Amahrie</t>
-  </si>
-  <si>
     <t>UMBC Defensive REBOUND by Valentine, Ace</t>
   </si>
   <si>
     <t>Layup MISSED by UMBC's Banks, Marcus</t>
   </si>
   <si>
-    <t>BEARS Defensive REBOUND by Tabbs, Wynston</t>
-  </si>
-  <si>
-    <t>Layup MISSED by BEARS's Simpkins, Amahrie</t>
-  </si>
-  <si>
     <t>UMBC Defensive REBOUND by Banks, Marcus</t>
   </si>
   <si>
@@ -721,18 +703,6 @@
     <t>UMBC Assist by Banks, Marcus</t>
   </si>
   <si>
-    <t>Subbing in for BEARS - Oliver, Christian</t>
-  </si>
-  <si>
-    <t>Subbing out for BEARS - Udemadu, Allen</t>
-  </si>
-  <si>
-    <t>Jumper MISSED by BEARS's Edwards, Trent</t>
-  </si>
-  <si>
-    <t>Foul on BEARS's Oliver, Christian</t>
-  </si>
-  <si>
     <t>Free Throw MISSED by UMBC's Smith, Khydarius</t>
   </si>
   <si>
@@ -748,9 +718,6 @@
     <t>Subbing out for UMBC - Saapp, Devan</t>
   </si>
   <si>
-    <t>Jumper GOOD by BEARS's Tabbs, Wynston</t>
-  </si>
-  <si>
     <t>Layup GOOD by UMBC's Smith, Khydarius</t>
   </si>
   <si>
@@ -760,18 +727,12 @@
     <t>3 Pointer MISSED by UMBC's Banks, Marcus</t>
   </si>
   <si>
-    <t>BEARS Defensive REBOUND by Oliver, Christian</t>
-  </si>
-  <si>
     <t>Foul on UMBC's Banks, Marcus</t>
   </si>
   <si>
     <t>Media timeout</t>
   </si>
   <si>
-    <t>Free Throw GOOD by BEARS's Tabbs, Wynston</t>
-  </si>
-  <si>
     <t>Subbing in for UMBC - Johnson, Bryce</t>
   </si>
   <si>
@@ -787,21 +748,9 @@
     <t>Layup GOOD by UMBC's Brown, Dion</t>
   </si>
   <si>
-    <t>Layup GOOD by BEARS's Tabbs, Wynston</t>
-  </si>
-  <si>
     <t>3 Pointer MISSED by UMBC's Brown, Dion</t>
   </si>
   <si>
-    <t>BEARS Defensive REBOUND by Hobbs, Kamron</t>
-  </si>
-  <si>
-    <t>3 Pointer GOOD by BEARS's Tabbs, Wynston</t>
-  </si>
-  <si>
-    <t>BEARS Assist by Simpkins, Amahrie</t>
-  </si>
-  <si>
     <t>UMBC Turnover by Johnson, Bryce</t>
   </si>
   <si>
@@ -817,24 +766,6 @@
     <t>Subbing out for UMBC - Brown, Dion</t>
   </si>
   <si>
-    <t>Subbing in for BEARS - Topps, Demajion</t>
-  </si>
-  <si>
-    <t>Subbing in for BEARS - Udemadu, Allen</t>
-  </si>
-  <si>
-    <t>Subbing out for BEARS - Hobbs, Kamron</t>
-  </si>
-  <si>
-    <t>Subbing out for BEARS - Oliver, Christian</t>
-  </si>
-  <si>
-    <t>Jumper MISSED by BEARS's Tabbs, Wynston</t>
-  </si>
-  <si>
-    <t>Layup MISSED by BEARS's Udemadu, Allen</t>
-  </si>
-  <si>
     <t>UMBC Defensive REBOUND by Chibambe, Alpha</t>
   </si>
   <si>
@@ -847,30 +778,12 @@
     <t>3 Pointer MISSED by UMBC's Emmou, Franck</t>
   </si>
   <si>
-    <t>BEARS Defensive REBOUND by Udemadu, Allen</t>
-  </si>
-  <si>
     <t>Foul on UMBC's Johnson, Bryce</t>
   </si>
   <si>
-    <t>Free Throw GOOD by BEARS's Topps, Demajion</t>
-  </si>
-  <si>
-    <t>Free Throw MISSED by BEARS's Topps, Demajion</t>
-  </si>
-  <si>
-    <t>Subbing in for BEARS - Hobbs, Kamron</t>
-  </si>
-  <si>
-    <t>Subbing out for BEARS - Edwards, Trent</t>
-  </si>
-  <si>
     <t>Layup MISSED by UMBC's Short, Marion</t>
   </si>
   <si>
-    <t>BEARS Defensive REBOUND by Simpkins, Amahrie</t>
-  </si>
-  <si>
     <t>Layup GOOD by UMBC's Emmou, Franck</t>
   </si>
   <si>
@@ -883,51 +796,27 @@
     <t>Subbing out for UMBC - Chibambe, Alpha</t>
   </si>
   <si>
-    <t>Subbing in for BEARS - Edwards, Trent</t>
-  </si>
-  <si>
-    <t>Subbing out for BEARS - Tabbs, Wynston</t>
-  </si>
-  <si>
     <t>UMBC Defensive REBOUND by Emmou, Franck</t>
   </si>
   <si>
-    <t>Foul on BEARS's Simpkins, Amahrie</t>
-  </si>
-  <si>
     <t>Free Throw MISSED by UMBC's Short, Marion</t>
   </si>
   <si>
     <t>Free Throw MISSED by UMBC's Chibambe, Alpha</t>
   </si>
   <si>
-    <t>BEARS Defensive REBOUND by Topps, Demajion</t>
-  </si>
-  <si>
     <t>Subbing in for UMBC - Brown, Dion</t>
   </si>
   <si>
     <t>Subbing out for UMBC - Reese, Ashton</t>
   </si>
   <si>
-    <t>Subbing in for BEARS - Tabbs, Wynston</t>
-  </si>
-  <si>
-    <t>Subbing out for BEARS - Simpkins, Amahrie</t>
-  </si>
-  <si>
-    <t>Layup MISSED by BEARS's Topps, Demajion</t>
-  </si>
-  <si>
     <t>UMBC Block by Smith, Khydarius</t>
   </si>
   <si>
     <t>Foul on UMBC's Brown, Dion</t>
   </si>
   <si>
-    <t>Free Throw GOOD by BEARS's Udemadu, Allen</t>
-  </si>
-  <si>
     <t>Subbing in for UMBC - Banks, Marcus</t>
   </si>
   <si>
@@ -955,132 +844,51 @@
     <t>Subbing out for UMBC - Emmou, Franck</t>
   </si>
   <si>
-    <t>Subbing in for BEARS - Simpkins, Amahrie</t>
-  </si>
-  <si>
-    <t>Subbing out for BEARS - Topps, Demajion</t>
-  </si>
-  <si>
-    <t>3 Pointer MISSED by BEARS's Hobbs, Kamron</t>
-  </si>
-  <si>
-    <t>Layup MISSED by BEARS's Tabbs, Wynston</t>
-  </si>
-  <si>
     <t>UMBC Turnover by Banks, Marcus</t>
   </si>
   <si>
-    <t>BEARS Steal by Simpkins, Amahrie</t>
-  </si>
-  <si>
-    <t>BEARS Offensive REBOUND by Edwards, Trent</t>
-  </si>
-  <si>
-    <t>Subbing in for BEARS - Thomas, Will</t>
-  </si>
-  <si>
-    <t>Jumper MISSED by BEARS's Udemadu, Allen</t>
-  </si>
-  <si>
     <t>UMBC Defensive REBOUND by Saapp, Devan</t>
   </si>
   <si>
     <t>UMBC Assist by Saapp, Devan</t>
   </si>
   <si>
-    <t>Layup GOOD by BEARS's Oliver, Christian</t>
-  </si>
-  <si>
-    <t>BEARS Assist by Hobbs, Kamron</t>
-  </si>
-  <si>
     <t>3 Pointer GOOD by UMBC's Saapp, Devan</t>
   </si>
   <si>
     <t>Layup MISSED by UMBC's Valentine, Ace</t>
   </si>
   <si>
-    <t>BEARS Block by Simpkins, Amahrie</t>
-  </si>
-  <si>
     <t>UMBC Offensive REBOUND by team</t>
   </si>
   <si>
     <t>Layup MISSED by UMBC's Johnson, Bryce</t>
   </si>
   <si>
-    <t>BEARS Block by Oliver, Christian</t>
-  </si>
-  <si>
-    <t>BEARS Defensive REBOUND by team</t>
-  </si>
-  <si>
-    <t>BEARS Offensive REBOUND by Thomas, Will</t>
-  </si>
-  <si>
-    <t>Layup GOOD by BEARS's Thomas, Will</t>
-  </si>
-  <si>
     <t>Foul on UMBC's Saapp, Devan</t>
   </si>
   <si>
-    <t>Free Throw GOOD by BEARS's Thomas, Will</t>
-  </si>
-  <si>
     <t>UMBC Assist by Johnson, Bryce</t>
   </si>
   <si>
-    <t>BEARS Turnover by Oliver, Christian</t>
-  </si>
-  <si>
     <t>Jumper MISSED by UMBC's Smith, Khydarius</t>
   </si>
   <si>
     <t>UMBC Offensive REBOUND by Valentine, Ace</t>
   </si>
   <si>
-    <t>BEARS Defensive REBOUND by Edwards, Trent</t>
-  </si>
-  <si>
     <t>Layup MISSED by UMBC's Saapp, Devan</t>
   </si>
   <si>
-    <t>BEARS Turnover by Udemadu, Allen</t>
-  </si>
-  <si>
-    <t>Foul on BEARS's Tabbs, Wynston</t>
-  </si>
-  <si>
-    <t>BEARS Turnover by Tabbs, Wynston</t>
-  </si>
-  <si>
     <t>Layup GOOD by UMBC's Reese, Ashton</t>
   </si>
   <si>
-    <t>Jumper GOOD by BEARS's Thomas, Will</t>
-  </si>
-  <si>
-    <t>Layup MISSED by BEARS's Thomas, Will</t>
-  </si>
-  <si>
-    <t>3 Pointer MISSED by BEARS's Thomas, Will</t>
-  </si>
-  <si>
-    <t>3 Pointer GOOD by BEARS's Hobbs, Kamron</t>
-  </si>
-  <si>
-    <t>BEARS Assist by Thomas, Will</t>
-  </si>
-  <si>
     <t>UMBC takes a 30-second time out.</t>
   </si>
   <si>
     <t>Jumper MISSED by UMBC's Emmou, Franck</t>
   </si>
   <si>
-    <t>Foul on BEARS's Thomas, Will</t>
-  </si>
-  <si>
     <t>Free Throw GOOD by UMBC's Johnson, Bryce</t>
   </si>
   <si>
@@ -1090,21 +898,9 @@
     <t>3 Pointer MISSED by UMBC's Saapp, Devan</t>
   </si>
   <si>
-    <t>BEARS takes a 30-second time out.</t>
-  </si>
-  <si>
-    <t>Jumper MISSED by BEARS's Thomas, Will</t>
-  </si>
-  <si>
     <t>UMBC Defensive REBOUND by Reese, Ashton</t>
   </si>
   <si>
-    <t>BEARS Defensive REBOUND by Washington, Staccardo</t>
-  </si>
-  <si>
-    <t>BEARS Turnover by Simpkins, Amahrie</t>
-  </si>
-  <si>
     <t>UMBC Steal by Brown, Dion</t>
   </si>
   <si>
@@ -1114,57 +910,24 @@
     <t>UMBC Block by Brown, Dion</t>
   </si>
   <si>
-    <t>Foul on BEARS's Udemadu, Allen</t>
-  </si>
-  <si>
     <t>Layup MISSED by UMBC's Brown, Dion</t>
   </si>
   <si>
     <t>UMBC Turnover by Brown, Dion</t>
   </si>
   <si>
-    <t>BEARS Steal by Tabbs, Wynston</t>
-  </si>
-  <si>
     <t>UMBC takes a 20-second time out.</t>
   </si>
   <si>
     <t>Layup MISSED by UMBC's Reese, Ashton</t>
   </si>
   <si>
-    <t>BEARS Turnover by Hobbs, Kamron</t>
-  </si>
-  <si>
     <t>UMBC Steal by Reese, Ashton</t>
   </si>
   <si>
     <t>Jumper GOOD by UMBC's Johnson, Bryce</t>
   </si>
   <si>
-    <t>3 Pointer GOOD by BEARS's Topps, Demajion</t>
-  </si>
-  <si>
-    <t>Foul on BEARS's Topps, Demajion</t>
-  </si>
-  <si>
-    <t>BEARS takes a 20-second time out.</t>
-  </si>
-  <si>
-    <t>Subbing out for BEARS - Thomas, Will</t>
-  </si>
-  <si>
-    <t>BEARS Offensive REBOUND by Simpkins, Amahrie</t>
-  </si>
-  <si>
-    <t>Layup MISSED by BEARS's Edwards, Trent</t>
-  </si>
-  <si>
-    <t>BEARS Offensive REBOUND by Oliver, Christian</t>
-  </si>
-  <si>
-    <t>Layup MISSED by BEARS's Oliver, Christian</t>
-  </si>
-  <si>
     <t>3 Pointer GOOD by UMBC's Johnson, Bryce</t>
   </si>
   <si>
@@ -1180,9 +943,6 @@
     <t>Layup GOOD by UMBC's Chibambe, Alpha</t>
   </si>
   <si>
-    <t>Layup GOOD by BEARS's Simpkins, Amahrie</t>
-  </si>
-  <si>
     <t>Layup GOOD by UMBC's Johnson, Bryce</t>
   </si>
   <si>
@@ -1192,21 +952,6 @@
     <t>UMBC Turnover by Chibambe, Alpha</t>
   </si>
   <si>
-    <t>BEARS Steal by Hobbs, Kamron</t>
-  </si>
-  <si>
-    <t>Layup GOOD by BEARS's Hobbs, Kamron</t>
-  </si>
-  <si>
-    <t>BEARS Steal by Thomas, Will</t>
-  </si>
-  <si>
-    <t>Layup MISSED by BEARS's Hobbs, Kamron</t>
-  </si>
-  <si>
-    <t>BEARS Defensive REBOUND by Thomas, Will</t>
-  </si>
-  <si>
     <t>UMBC Defensive REBOUND by team</t>
   </si>
   <si>
@@ -1219,21 +964,9 @@
     <t>Foul on UMBC's Short, Marion</t>
   </si>
   <si>
-    <t>Free Throw MISSED by BEARS's Simpkins, Amahrie</t>
-  </si>
-  <si>
-    <t>BEARS gets a REBOUND from a dead ball.</t>
-  </si>
-  <si>
-    <t>Free Throw GOOD by BEARS's Simpkins, Amahrie</t>
-  </si>
-  <si>
     <t>Free Throw MISSED by UMBC's Emmou, Franck</t>
   </si>
   <si>
-    <t>BEARS Steal by Oliver, Christian</t>
-  </si>
-  <si>
     <t>UMBC takes a TIMEOUT</t>
   </si>
   <si>
@@ -1243,45 +976,21 @@
     <t>Layup MISSED by UMBC's Smith, Khydarius</t>
   </si>
   <si>
-    <t>3 Pointer MISSED by BEARS's Oliver, Christian</t>
-  </si>
-  <si>
     <t>Jumper MISSED by UMBC's Banks, Marcus</t>
   </si>
   <si>
-    <t>BEARS Block by Thomas, Will</t>
-  </si>
-  <si>
     <t>Foul on UMBC's team</t>
   </si>
   <si>
-    <t>BEARS Turnover by Thomas, Will</t>
-  </si>
-  <si>
     <t>UMBC Steal by Johnson, Bryce</t>
   </si>
   <si>
     <t>Foul on UMBC's Smith, Khydarius</t>
   </si>
   <si>
-    <t>Free Throw MISSED by BEARS's Oliver, Christian</t>
-  </si>
-  <si>
-    <t>Free Throw GOOD by BEARS's Oliver, Christian</t>
-  </si>
-  <si>
     <t>UMBC Offensive REBOUND by Brown, Dion</t>
   </si>
   <si>
-    <t>Jumper MISSED by BEARS's Oliver, Christian</t>
-  </si>
-  <si>
-    <t>Jumper GOOD by BEARS's Hobbs, Kamron</t>
-  </si>
-  <si>
-    <t>BEARS takes a TIMEOUT</t>
-  </si>
-  <si>
     <t>Free Throw GOOD by UMBC's Brown, Dion</t>
   </si>
   <si>
@@ -1291,38 +1000,335 @@
     <t>UMBC Defensive REBOUND by Johnson, Bryce</t>
   </si>
   <si>
-    <t>Jumper MISSED by BEARS's Topps, Demajion</t>
-  </si>
-  <si>
     <t>Subbing in for UMBC - Ciunys, Regimantas</t>
   </si>
   <si>
     <t>Subbing in for UMBC - Gardner, Marcel</t>
   </si>
   <si>
-    <t>Subbing in for BEARS - Akitoby, Daniel</t>
-  </si>
-  <si>
-    <t>Subbing in for BEARS - Brimage, Marvin</t>
-  </si>
-  <si>
-    <t>Foul on BEARS's Brimage, Marvin</t>
-  </si>
-  <si>
     <t>UMBC Defensive REBOUND by Ciunys, Regimantas</t>
   </si>
   <si>
-    <t>Foul on BEARS's Akitoby, Daniel</t>
-  </si>
-  <si>
     <t>Free Throw GOOD by UMBC's Valentine, Ace</t>
+  </si>
+  <si>
+    <t>3 Pointer MISSED by Morgan's Tabbs, Wynston</t>
+  </si>
+  <si>
+    <t>Morgan Offensive REBOUND by Udemadu, Allen</t>
+  </si>
+  <si>
+    <t>Layup GOOD by Morgan's Udemadu, Allen</t>
+  </si>
+  <si>
+    <t>Morgan Steal by Edwards, Trent</t>
+  </si>
+  <si>
+    <t>Morgan Turnover by Edwards, Trent</t>
+  </si>
+  <si>
+    <t>3 Pointer MISSED by Morgan's Simpkins, Amahrie</t>
+  </si>
+  <si>
+    <t>Morgan Defensive REBOUND by Tabbs, Wynston</t>
+  </si>
+  <si>
+    <t>Layup MISSED by Morgan's Simpkins, Amahrie</t>
+  </si>
+  <si>
+    <t>Subbing in for Morgan - Oliver, Christian</t>
+  </si>
+  <si>
+    <t>Subbing out for Morgan - Udemadu, Allen</t>
+  </si>
+  <si>
+    <t>Jumper MISSED by Morgan's Edwards, Trent</t>
+  </si>
+  <si>
+    <t>Foul on Morgan's Oliver, Christian</t>
+  </si>
+  <si>
+    <t>Jumper GOOD by Morgan's Tabbs, Wynston</t>
+  </si>
+  <si>
+    <t>Morgan Defensive REBOUND by Oliver, Christian</t>
+  </si>
+  <si>
+    <t>Free Throw GOOD by Morgan's Tabbs, Wynston</t>
+  </si>
+  <si>
+    <t>Layup GOOD by Morgan's Tabbs, Wynston</t>
+  </si>
+  <si>
+    <t>Morgan Defensive REBOUND by Hobbs, Kamron</t>
+  </si>
+  <si>
+    <t>3 Pointer GOOD by Morgan's Tabbs, Wynston</t>
+  </si>
+  <si>
+    <t>Morgan Assist by Simpkins, Amahrie</t>
+  </si>
+  <si>
+    <t>Subbing in for Morgan - Topps, Demajion</t>
+  </si>
+  <si>
+    <t>Subbing in for Morgan - Udemadu, Allen</t>
+  </si>
+  <si>
+    <t>Subbing out for Morgan - Hobbs, Kamron</t>
+  </si>
+  <si>
+    <t>Subbing out for Morgan - Oliver, Christian</t>
+  </si>
+  <si>
+    <t>Jumper MISSED by Morgan's Tabbs, Wynston</t>
+  </si>
+  <si>
+    <t>Layup MISSED by Morgan's Udemadu, Allen</t>
+  </si>
+  <si>
+    <t>Morgan Defensive REBOUND by Udemadu, Allen</t>
+  </si>
+  <si>
+    <t>Free Throw GOOD by Morgan's Topps, Demajion</t>
+  </si>
+  <si>
+    <t>Free Throw MISSED by Morgan's Topps, Demajion</t>
+  </si>
+  <si>
+    <t>Subbing in for Morgan - Hobbs, Kamron</t>
+  </si>
+  <si>
+    <t>Subbing out for Morgan - Edwards, Trent</t>
+  </si>
+  <si>
+    <t>Morgan Defensive REBOUND by Simpkins, Amahrie</t>
+  </si>
+  <si>
+    <t>Subbing in for Morgan - Edwards, Trent</t>
+  </si>
+  <si>
+    <t>Subbing out for Morgan - Tabbs, Wynston</t>
+  </si>
+  <si>
+    <t>Foul on Morgan's Simpkins, Amahrie</t>
+  </si>
+  <si>
+    <t>Morgan Defensive REBOUND by Topps, Demajion</t>
+  </si>
+  <si>
+    <t>Subbing in for Morgan - Tabbs, Wynston</t>
+  </si>
+  <si>
+    <t>Subbing out for Morgan - Simpkins, Amahrie</t>
+  </si>
+  <si>
+    <t>Layup MISSED by Morgan's Topps, Demajion</t>
+  </si>
+  <si>
+    <t>Free Throw GOOD by Morgan's Udemadu, Allen</t>
+  </si>
+  <si>
+    <t>Subbing in for Morgan - Simpkins, Amahrie</t>
+  </si>
+  <si>
+    <t>Subbing out for Morgan - Topps, Demajion</t>
+  </si>
+  <si>
+    <t>3 Pointer MISSED by Morgan's Hobbs, Kamron</t>
+  </si>
+  <si>
+    <t>Layup MISSED by Morgan's Tabbs, Wynston</t>
+  </si>
+  <si>
+    <t>Morgan Steal by Simpkins, Amahrie</t>
+  </si>
+  <si>
+    <t>Morgan Offensive REBOUND by Edwards, Trent</t>
+  </si>
+  <si>
+    <t>Subbing in for Morgan - Thomas, Will</t>
+  </si>
+  <si>
+    <t>Jumper MISSED by Morgan's Udemadu, Allen</t>
+  </si>
+  <si>
+    <t>Layup GOOD by Morgan's Oliver, Christian</t>
+  </si>
+  <si>
+    <t>Morgan Assist by Hobbs, Kamron</t>
+  </si>
+  <si>
+    <t>Morgan Block by Simpkins, Amahrie</t>
+  </si>
+  <si>
+    <t>Morgan Block by Oliver, Christian</t>
+  </si>
+  <si>
+    <t>Morgan Defensive REBOUND by team</t>
+  </si>
+  <si>
+    <t>Morgan Offensive REBOUND by Thomas, Will</t>
+  </si>
+  <si>
+    <t>Layup GOOD by Morgan's Thomas, Will</t>
+  </si>
+  <si>
+    <t>Free Throw GOOD by Morgan's Thomas, Will</t>
+  </si>
+  <si>
+    <t>Morgan Turnover by Oliver, Christian</t>
+  </si>
+  <si>
+    <t>Morgan Defensive REBOUND by Edwards, Trent</t>
+  </si>
+  <si>
+    <t>Morgan Turnover by Udemadu, Allen</t>
+  </si>
+  <si>
+    <t>Foul on Morgan's Tabbs, Wynston</t>
+  </si>
+  <si>
+    <t>Morgan Turnover by Tabbs, Wynston</t>
+  </si>
+  <si>
+    <t>Jumper GOOD by Morgan's Thomas, Will</t>
+  </si>
+  <si>
+    <t>Layup MISSED by Morgan's Thomas, Will</t>
+  </si>
+  <si>
+    <t>3 Pointer MISSED by Morgan's Thomas, Will</t>
+  </si>
+  <si>
+    <t>3 Pointer GOOD by Morgan's Hobbs, Kamron</t>
+  </si>
+  <si>
+    <t>Morgan Assist by Thomas, Will</t>
+  </si>
+  <si>
+    <t>Foul on Morgan's Thomas, Will</t>
+  </si>
+  <si>
+    <t>Morgan takes a 30-second time out.</t>
+  </si>
+  <si>
+    <t>Jumper MISSED by Morgan's Thomas, Will</t>
+  </si>
+  <si>
+    <t>Morgan Defensive REBOUND by Washington, Staccardo</t>
+  </si>
+  <si>
+    <t>Morgan Turnover by Simpkins, Amahrie</t>
+  </si>
+  <si>
+    <t>Foul on Morgan's Udemadu, Allen</t>
+  </si>
+  <si>
+    <t>Morgan Steal by Tabbs, Wynston</t>
+  </si>
+  <si>
+    <t>Morgan Turnover by Hobbs, Kamron</t>
+  </si>
+  <si>
+    <t>3 Pointer GOOD by Morgan's Topps, Demajion</t>
+  </si>
+  <si>
+    <t>Foul on Morgan's Topps, Demajion</t>
+  </si>
+  <si>
+    <t>Morgan takes a 20-second time out.</t>
+  </si>
+  <si>
+    <t>Subbing out for Morgan - Thomas, Will</t>
+  </si>
+  <si>
+    <t>Morgan Offensive REBOUND by Simpkins, Amahrie</t>
+  </si>
+  <si>
+    <t>Layup MISSED by Morgan's Edwards, Trent</t>
+  </si>
+  <si>
+    <t>Morgan Offensive REBOUND by Oliver, Christian</t>
+  </si>
+  <si>
+    <t>Layup MISSED by Morgan's Oliver, Christian</t>
+  </si>
+  <si>
+    <t>Layup GOOD by Morgan's Simpkins, Amahrie</t>
+  </si>
+  <si>
+    <t>Morgan Steal by Hobbs, Kamron</t>
+  </si>
+  <si>
+    <t>Layup GOOD by Morgan's Hobbs, Kamron</t>
+  </si>
+  <si>
+    <t>Morgan Steal by Thomas, Will</t>
+  </si>
+  <si>
+    <t>Layup MISSED by Morgan's Hobbs, Kamron</t>
+  </si>
+  <si>
+    <t>Morgan Defensive REBOUND by Thomas, Will</t>
+  </si>
+  <si>
+    <t>Free Throw MISSED by Morgan's Simpkins, Amahrie</t>
+  </si>
+  <si>
+    <t>Morgan gets a REBOUND from a dead ball.</t>
+  </si>
+  <si>
+    <t>Free Throw GOOD by Morgan's Simpkins, Amahrie</t>
+  </si>
+  <si>
+    <t>Morgan Steal by Oliver, Christian</t>
+  </si>
+  <si>
+    <t>3 Pointer MISSED by Morgan's Oliver, Christian</t>
+  </si>
+  <si>
+    <t>Morgan Block by Thomas, Will</t>
+  </si>
+  <si>
+    <t>Morgan Turnover by Thomas, Will</t>
+  </si>
+  <si>
+    <t>Free Throw MISSED by Morgan's Oliver, Christian</t>
+  </si>
+  <si>
+    <t>Free Throw GOOD by Morgan's Oliver, Christian</t>
+  </si>
+  <si>
+    <t>Jumper MISSED by Morgan's Oliver, Christian</t>
+  </si>
+  <si>
+    <t>Jumper GOOD by Morgan's Hobbs, Kamron</t>
+  </si>
+  <si>
+    <t>Morgan takes a TIMEOUT</t>
+  </si>
+  <si>
+    <t>Jumper MISSED by Morgan's Topps, Demajion</t>
+  </si>
+  <si>
+    <t>Subbing in for Morgan - Akitoby, Daniel</t>
+  </si>
+  <si>
+    <t>Subbing in for Morgan - Brimage, Marvin</t>
+  </si>
+  <si>
+    <t>Foul on Morgan's Brimage, Marvin</t>
+  </si>
+  <si>
+    <t>Foul on Morgan's Akitoby, Daniel</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1385,13 +1391,21 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1429,7 +1443,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -1463,6 +1477,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -1497,9 +1512,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1672,14 +1688,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E523"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J13" sqref="J13"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1696,7 +1714,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1713,7 +1731,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1</v>
       </c>
@@ -1727,10 +1745,10 @@
         <v>0</v>
       </c>
       <c r="E3" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>1</v>
       </c>
@@ -1744,10 +1762,10 @@
         <v>0</v>
       </c>
       <c r="E4" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>1</v>
       </c>
@@ -1761,10 +1779,10 @@
         <v>0</v>
       </c>
       <c r="E5" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>1</v>
       </c>
@@ -1778,10 +1796,10 @@
         <v>0</v>
       </c>
       <c r="E6" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>1</v>
       </c>
@@ -1795,10 +1813,10 @@
         <v>0</v>
       </c>
       <c r="E7" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>1</v>
       </c>
@@ -1812,10 +1830,10 @@
         <v>2</v>
       </c>
       <c r="E8" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>1</v>
       </c>
@@ -1829,10 +1847,10 @@
         <v>2</v>
       </c>
       <c r="E9" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>1</v>
       </c>
@@ -1846,10 +1864,10 @@
         <v>2</v>
       </c>
       <c r="E10" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>1</v>
       </c>
@@ -1863,10 +1881,10 @@
         <v>2</v>
       </c>
       <c r="E11" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>1</v>
       </c>
@@ -1880,10 +1898,10 @@
         <v>2</v>
       </c>
       <c r="E12" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>1</v>
       </c>
@@ -1897,10 +1915,10 @@
         <v>2</v>
       </c>
       <c r="E13" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>1</v>
       </c>
@@ -1914,10 +1932,10 @@
         <v>2</v>
       </c>
       <c r="E14" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>1</v>
       </c>
@@ -1931,10 +1949,10 @@
         <v>2</v>
       </c>
       <c r="E15" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>1</v>
       </c>
@@ -1948,10 +1966,10 @@
         <v>2</v>
       </c>
       <c r="E16" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>1</v>
       </c>
@@ -1965,10 +1983,10 @@
         <v>2</v>
       </c>
       <c r="E17" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>1</v>
       </c>
@@ -1982,10 +2000,10 @@
         <v>2</v>
       </c>
       <c r="E18" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>1</v>
       </c>
@@ -1999,10 +2017,10 @@
         <v>2</v>
       </c>
       <c r="E19" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>1</v>
       </c>
@@ -2016,10 +2034,10 @@
         <v>2</v>
       </c>
       <c r="E20" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>1</v>
       </c>
@@ -2033,10 +2051,10 @@
         <v>2</v>
       </c>
       <c r="E21" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>1</v>
       </c>
@@ -2050,10 +2068,10 @@
         <v>2</v>
       </c>
       <c r="E22" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>1</v>
       </c>
@@ -2067,10 +2085,10 @@
         <v>2</v>
       </c>
       <c r="E23" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>1</v>
       </c>
@@ -2084,10 +2102,10 @@
         <v>2</v>
       </c>
       <c r="E24" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>1</v>
       </c>
@@ -2101,10 +2119,10 @@
         <v>2</v>
       </c>
       <c r="E25" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>1</v>
       </c>
@@ -2118,10 +2136,10 @@
         <v>2</v>
       </c>
       <c r="E26" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>1</v>
       </c>
@@ -2135,10 +2153,10 @@
         <v>2</v>
       </c>
       <c r="E27" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>1</v>
       </c>
@@ -2152,10 +2170,10 @@
         <v>2</v>
       </c>
       <c r="E28" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>1</v>
       </c>
@@ -2169,10 +2187,10 @@
         <v>2</v>
       </c>
       <c r="E29" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>1</v>
       </c>
@@ -2186,10 +2204,10 @@
         <v>2</v>
       </c>
       <c r="E30" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>1</v>
       </c>
@@ -2203,10 +2221,10 @@
         <v>2</v>
       </c>
       <c r="E31" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>1</v>
       </c>
@@ -2220,10 +2238,10 @@
         <v>2</v>
       </c>
       <c r="E32" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>1</v>
       </c>
@@ -2237,10 +2255,10 @@
         <v>4</v>
       </c>
       <c r="E33" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>1</v>
       </c>
@@ -2254,10 +2272,10 @@
         <v>4</v>
       </c>
       <c r="E34" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>1</v>
       </c>
@@ -2271,10 +2289,10 @@
         <v>4</v>
       </c>
       <c r="E35" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>1</v>
       </c>
@@ -2288,10 +2306,10 @@
         <v>4</v>
       </c>
       <c r="E36" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>1</v>
       </c>
@@ -2305,10 +2323,10 @@
         <v>4</v>
       </c>
       <c r="E37" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>1</v>
       </c>
@@ -2322,10 +2340,10 @@
         <v>4</v>
       </c>
       <c r="E38" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>1</v>
       </c>
@@ -2339,10 +2357,10 @@
         <v>4</v>
       </c>
       <c r="E39" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>1</v>
       </c>
@@ -2356,10 +2374,10 @@
         <v>4</v>
       </c>
       <c r="E40" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>1</v>
       </c>
@@ -2373,10 +2391,10 @@
         <v>5</v>
       </c>
       <c r="E41" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>1</v>
       </c>
@@ -2390,10 +2408,10 @@
         <v>6</v>
       </c>
       <c r="E42" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>1</v>
       </c>
@@ -2407,10 +2425,10 @@
         <v>6</v>
       </c>
       <c r="E43" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>1</v>
       </c>
@@ -2424,10 +2442,10 @@
         <v>6</v>
       </c>
       <c r="E44" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>1</v>
       </c>
@@ -2441,10 +2459,10 @@
         <v>6</v>
       </c>
       <c r="E45" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>1</v>
       </c>
@@ -2458,10 +2476,10 @@
         <v>6</v>
       </c>
       <c r="E46" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>1</v>
       </c>
@@ -2475,10 +2493,10 @@
         <v>6</v>
       </c>
       <c r="E47" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>1</v>
       </c>
@@ -2492,10 +2510,10 @@
         <v>8</v>
       </c>
       <c r="E48" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>1</v>
       </c>
@@ -2509,10 +2527,10 @@
         <v>8</v>
       </c>
       <c r="E49" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>1</v>
       </c>
@@ -2526,10 +2544,10 @@
         <v>8</v>
       </c>
       <c r="E50" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>1</v>
       </c>
@@ -2543,10 +2561,10 @@
         <v>11</v>
       </c>
       <c r="E51" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>1</v>
       </c>
@@ -2560,10 +2578,10 @@
         <v>11</v>
       </c>
       <c r="E52" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>1</v>
       </c>
@@ -2577,10 +2595,10 @@
         <v>11</v>
       </c>
       <c r="E53" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>1</v>
       </c>
@@ -2594,10 +2612,10 @@
         <v>11</v>
       </c>
       <c r="E54" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>1</v>
       </c>
@@ -2611,10 +2629,10 @@
         <v>11</v>
       </c>
       <c r="E55" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>1</v>
       </c>
@@ -2628,10 +2646,10 @@
         <v>11</v>
       </c>
       <c r="E56" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>1</v>
       </c>
@@ -2645,10 +2663,10 @@
         <v>11</v>
       </c>
       <c r="E57" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="58" spans="1:5">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>1</v>
       </c>
@@ -2662,10 +2680,10 @@
         <v>11</v>
       </c>
       <c r="E58" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>1</v>
       </c>
@@ -2679,10 +2697,10 @@
         <v>11</v>
       </c>
       <c r="E59" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>1</v>
       </c>
@@ -2696,10 +2714,10 @@
         <v>11</v>
       </c>
       <c r="E60" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>1</v>
       </c>
@@ -2713,10 +2731,10 @@
         <v>11</v>
       </c>
       <c r="E61" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>1</v>
       </c>
@@ -2730,10 +2748,10 @@
         <v>11</v>
       </c>
       <c r="E62" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="63" spans="1:5">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>1</v>
       </c>
@@ -2747,10 +2765,10 @@
         <v>11</v>
       </c>
       <c r="E63" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>1</v>
       </c>
@@ -2764,10 +2782,10 @@
         <v>11</v>
       </c>
       <c r="E64" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="65" spans="1:5">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>1</v>
       </c>
@@ -2781,10 +2799,10 @@
         <v>11</v>
       </c>
       <c r="E65" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="66" spans="1:5">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>1</v>
       </c>
@@ -2798,10 +2816,10 @@
         <v>11</v>
       </c>
       <c r="E66" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="67" spans="1:5">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>1</v>
       </c>
@@ -2815,10 +2833,10 @@
         <v>11</v>
       </c>
       <c r="E67" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="68" spans="1:5">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>1</v>
       </c>
@@ -2832,10 +2850,10 @@
         <v>11</v>
       </c>
       <c r="E68" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="69" spans="1:5">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>1</v>
       </c>
@@ -2849,10 +2867,10 @@
         <v>11</v>
       </c>
       <c r="E69" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="70" spans="1:5">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>1</v>
       </c>
@@ -2866,10 +2884,10 @@
         <v>11</v>
       </c>
       <c r="E70" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="71" spans="1:5">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>1</v>
       </c>
@@ -2883,10 +2901,10 @@
         <v>12</v>
       </c>
       <c r="E71" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="72" spans="1:5">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>1</v>
       </c>
@@ -2900,10 +2918,10 @@
         <v>12</v>
       </c>
       <c r="E72" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="73" spans="1:5">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>1</v>
       </c>
@@ -2917,10 +2935,10 @@
         <v>12</v>
       </c>
       <c r="E73" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="74" spans="1:5">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>1</v>
       </c>
@@ -2934,10 +2952,10 @@
         <v>12</v>
       </c>
       <c r="E74" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="75" spans="1:5">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>1</v>
       </c>
@@ -2951,10 +2969,10 @@
         <v>12</v>
       </c>
       <c r="E75" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="76" spans="1:5">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>1</v>
       </c>
@@ -2968,10 +2986,10 @@
         <v>12</v>
       </c>
       <c r="E76" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="77" spans="1:5">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>1</v>
       </c>
@@ -2985,10 +3003,10 @@
         <v>12</v>
       </c>
       <c r="E77" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="78" spans="1:5">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>1</v>
       </c>
@@ -3002,10 +3020,10 @@
         <v>14</v>
       </c>
       <c r="E78" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="79" spans="1:5">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>1</v>
       </c>
@@ -3019,10 +3037,10 @@
         <v>14</v>
       </c>
       <c r="E79" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="80" spans="1:5">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>1</v>
       </c>
@@ -3036,10 +3054,10 @@
         <v>14</v>
       </c>
       <c r="E80" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="81" spans="1:5">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>1</v>
       </c>
@@ -3053,10 +3071,10 @@
         <v>14</v>
       </c>
       <c r="E81" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="82" spans="1:5">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>1</v>
       </c>
@@ -3070,10 +3088,10 @@
         <v>14</v>
       </c>
       <c r="E82" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="83" spans="1:5">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>1</v>
       </c>
@@ -3087,10 +3105,10 @@
         <v>14</v>
       </c>
       <c r="E83" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="84" spans="1:5">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A84">
         <v>1</v>
       </c>
@@ -3104,10 +3122,10 @@
         <v>14</v>
       </c>
       <c r="E84" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="85" spans="1:5">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A85">
         <v>1</v>
       </c>
@@ -3121,10 +3139,10 @@
         <v>14</v>
       </c>
       <c r="E85" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="86" spans="1:5">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A86">
         <v>1</v>
       </c>
@@ -3138,10 +3156,10 @@
         <v>14</v>
       </c>
       <c r="E86" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="87" spans="1:5">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A87">
         <v>1</v>
       </c>
@@ -3155,10 +3173,10 @@
         <v>14</v>
       </c>
       <c r="E87" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="88" spans="1:5">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A88">
         <v>1</v>
       </c>
@@ -3172,10 +3190,10 @@
         <v>14</v>
       </c>
       <c r="E88" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="89" spans="1:5">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A89">
         <v>1</v>
       </c>
@@ -3189,10 +3207,10 @@
         <v>14</v>
       </c>
       <c r="E89" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="90" spans="1:5">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A90">
         <v>1</v>
       </c>
@@ -3206,10 +3224,10 @@
         <v>14</v>
       </c>
       <c r="E90" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="91" spans="1:5">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A91">
         <v>1</v>
       </c>
@@ -3223,10 +3241,10 @@
         <v>14</v>
       </c>
       <c r="E91" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="92" spans="1:5">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A92">
         <v>1</v>
       </c>
@@ -3240,10 +3258,10 @@
         <v>14</v>
       </c>
       <c r="E92" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="93" spans="1:5">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A93">
         <v>1</v>
       </c>
@@ -3257,10 +3275,10 @@
         <v>14</v>
       </c>
       <c r="E93" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="94" spans="1:5">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A94">
         <v>1</v>
       </c>
@@ -3274,10 +3292,10 @@
         <v>14</v>
       </c>
       <c r="E94" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="95" spans="1:5">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A95">
         <v>1</v>
       </c>
@@ -3291,10 +3309,10 @@
         <v>14</v>
       </c>
       <c r="E95" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="96" spans="1:5">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A96">
         <v>1</v>
       </c>
@@ -3308,10 +3326,10 @@
         <v>14</v>
       </c>
       <c r="E96" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="97" spans="1:5">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A97">
         <v>1</v>
       </c>
@@ -3325,10 +3343,10 @@
         <v>14</v>
       </c>
       <c r="E97" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="98" spans="1:5">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A98">
         <v>1</v>
       </c>
@@ -3342,10 +3360,10 @@
         <v>14</v>
       </c>
       <c r="E98" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="99" spans="1:5">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A99">
         <v>1</v>
       </c>
@@ -3359,10 +3377,10 @@
         <v>14</v>
       </c>
       <c r="E99" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="100" spans="1:5">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A100">
         <v>1</v>
       </c>
@@ -3376,10 +3394,10 @@
         <v>14</v>
       </c>
       <c r="E100" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="101" spans="1:5">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A101">
         <v>1</v>
       </c>
@@ -3393,10 +3411,10 @@
         <v>14</v>
       </c>
       <c r="E101" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="102" spans="1:5">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A102">
         <v>1</v>
       </c>
@@ -3410,10 +3428,10 @@
         <v>14</v>
       </c>
       <c r="E102" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="103" spans="1:5">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A103">
         <v>1</v>
       </c>
@@ -3427,10 +3445,10 @@
         <v>15</v>
       </c>
       <c r="E103" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="104" spans="1:5">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A104">
         <v>1</v>
       </c>
@@ -3444,10 +3462,10 @@
         <v>16</v>
       </c>
       <c r="E104" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="105" spans="1:5">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A105">
         <v>1</v>
       </c>
@@ -3461,10 +3479,10 @@
         <v>16</v>
       </c>
       <c r="E105" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="106" spans="1:5">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A106">
         <v>1</v>
       </c>
@@ -3478,10 +3496,10 @@
         <v>16</v>
       </c>
       <c r="E106" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="107" spans="1:5">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A107">
         <v>1</v>
       </c>
@@ -3495,10 +3513,10 @@
         <v>16</v>
       </c>
       <c r="E107" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="108" spans="1:5">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A108">
         <v>1</v>
       </c>
@@ -3512,10 +3530,10 @@
         <v>16</v>
       </c>
       <c r="E108" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="109" spans="1:5">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A109">
         <v>1</v>
       </c>
@@ -3529,10 +3547,10 @@
         <v>16</v>
       </c>
       <c r="E109" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="110" spans="1:5">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="110" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A110">
         <v>1</v>
       </c>
@@ -3546,10 +3564,10 @@
         <v>16</v>
       </c>
       <c r="E110" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="111" spans="1:5">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="111" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A111">
         <v>1</v>
       </c>
@@ -3563,10 +3581,10 @@
         <v>16</v>
       </c>
       <c r="E111" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="112" spans="1:5">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="112" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A112">
         <v>1</v>
       </c>
@@ -3580,10 +3598,10 @@
         <v>16</v>
       </c>
       <c r="E112" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="113" spans="1:5">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="113" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A113">
         <v>1</v>
       </c>
@@ -3597,10 +3615,10 @@
         <v>16</v>
       </c>
       <c r="E113" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="114" spans="1:5">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="114" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A114">
         <v>1</v>
       </c>
@@ -3614,10 +3632,10 @@
         <v>16</v>
       </c>
       <c r="E114" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="115" spans="1:5">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="115" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A115">
         <v>1</v>
       </c>
@@ -3631,10 +3649,10 @@
         <v>16</v>
       </c>
       <c r="E115" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="116" spans="1:5">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="116" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A116">
         <v>1</v>
       </c>
@@ -3648,10 +3666,10 @@
         <v>16</v>
       </c>
       <c r="E116" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="117" spans="1:5">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="117" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A117">
         <v>1</v>
       </c>
@@ -3665,10 +3683,10 @@
         <v>16</v>
       </c>
       <c r="E117" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="118" spans="1:5">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="118" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A118">
         <v>1</v>
       </c>
@@ -3682,10 +3700,10 @@
         <v>16</v>
       </c>
       <c r="E118" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="119" spans="1:5">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="119" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A119">
         <v>1</v>
       </c>
@@ -3699,10 +3717,10 @@
         <v>16</v>
       </c>
       <c r="E119" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="120" spans="1:5">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="120" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A120">
         <v>1</v>
       </c>
@@ -3716,10 +3734,10 @@
         <v>16</v>
       </c>
       <c r="E120" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="121" spans="1:5">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="121" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A121">
         <v>1</v>
       </c>
@@ -3733,10 +3751,10 @@
         <v>16</v>
       </c>
       <c r="E121" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="122" spans="1:5">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="122" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A122">
         <v>1</v>
       </c>
@@ -3750,10 +3768,10 @@
         <v>16</v>
       </c>
       <c r="E122" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="123" spans="1:5">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="123" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A123">
         <v>1</v>
       </c>
@@ -3767,10 +3785,10 @@
         <v>16</v>
       </c>
       <c r="E123" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="124" spans="1:5">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="124" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A124">
         <v>1</v>
       </c>
@@ -3784,10 +3802,10 @@
         <v>16</v>
       </c>
       <c r="E124" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="125" spans="1:5">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="125" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A125">
         <v>1</v>
       </c>
@@ -3801,10 +3819,10 @@
         <v>16</v>
       </c>
       <c r="E125" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="126" spans="1:5">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="126" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A126">
         <v>1</v>
       </c>
@@ -3818,10 +3836,10 @@
         <v>16</v>
       </c>
       <c r="E126" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="127" spans="1:5">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="127" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A127">
         <v>1</v>
       </c>
@@ -3835,10 +3853,10 @@
         <v>16</v>
       </c>
       <c r="E127" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="128" spans="1:5">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="128" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A128">
         <v>1</v>
       </c>
@@ -3852,10 +3870,10 @@
         <v>16</v>
       </c>
       <c r="E128" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="129" spans="1:5">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="129" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A129">
         <v>1</v>
       </c>
@@ -3869,10 +3887,10 @@
         <v>16</v>
       </c>
       <c r="E129" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="130" spans="1:5">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="130" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A130">
         <v>1</v>
       </c>
@@ -3886,10 +3904,10 @@
         <v>16</v>
       </c>
       <c r="E130" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="131" spans="1:5">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="131" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A131">
         <v>1</v>
       </c>
@@ -3903,10 +3921,10 @@
         <v>16</v>
       </c>
       <c r="E131" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="132" spans="1:5">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="132" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A132">
         <v>1</v>
       </c>
@@ -3920,10 +3938,10 @@
         <v>16</v>
       </c>
       <c r="E132" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="133" spans="1:5">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="133" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A133">
         <v>1</v>
       </c>
@@ -3937,10 +3955,10 @@
         <v>16</v>
       </c>
       <c r="E133" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="134" spans="1:5">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="134" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A134">
         <v>1</v>
       </c>
@@ -3954,10 +3972,10 @@
         <v>16</v>
       </c>
       <c r="E134" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="135" spans="1:5">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="135" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A135">
         <v>1</v>
       </c>
@@ -3971,10 +3989,10 @@
         <v>16</v>
       </c>
       <c r="E135" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="136" spans="1:5">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="136" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A136">
         <v>1</v>
       </c>
@@ -3988,10 +4006,10 @@
         <v>16</v>
       </c>
       <c r="E136" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="137" spans="1:5">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="137" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A137">
         <v>1</v>
       </c>
@@ -4005,10 +4023,10 @@
         <v>16</v>
       </c>
       <c r="E137" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="138" spans="1:5">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="138" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A138">
         <v>1</v>
       </c>
@@ -4022,10 +4040,10 @@
         <v>18</v>
       </c>
       <c r="E138" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="139" spans="1:5">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="139" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A139">
         <v>1</v>
       </c>
@@ -4039,10 +4057,10 @@
         <v>18</v>
       </c>
       <c r="E139" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="140" spans="1:5">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="140" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A140">
         <v>1</v>
       </c>
@@ -4056,10 +4074,10 @@
         <v>18</v>
       </c>
       <c r="E140" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="141" spans="1:5">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="141" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A141">
         <v>1</v>
       </c>
@@ -4073,10 +4091,10 @@
         <v>18</v>
       </c>
       <c r="E141" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="142" spans="1:5">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="142" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A142">
         <v>1</v>
       </c>
@@ -4090,10 +4108,10 @@
         <v>20</v>
       </c>
       <c r="E142" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="143" spans="1:5">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="143" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A143">
         <v>1</v>
       </c>
@@ -4107,10 +4125,10 @@
         <v>20</v>
       </c>
       <c r="E143" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="144" spans="1:5">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="144" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A144">
         <v>1</v>
       </c>
@@ -4124,10 +4142,10 @@
         <v>20</v>
       </c>
       <c r="E144" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="145" spans="1:5">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="145" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A145">
         <v>1</v>
       </c>
@@ -4141,10 +4159,10 @@
         <v>20</v>
       </c>
       <c r="E145" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="146" spans="1:5">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="146" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A146">
         <v>1</v>
       </c>
@@ -4158,10 +4176,10 @@
         <v>20</v>
       </c>
       <c r="E146" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="147" spans="1:5">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="147" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A147">
         <v>1</v>
       </c>
@@ -4175,10 +4193,10 @@
         <v>20</v>
       </c>
       <c r="E147" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="148" spans="1:5">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="148" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A148">
         <v>1</v>
       </c>
@@ -4192,10 +4210,10 @@
         <v>20</v>
       </c>
       <c r="E148" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="149" spans="1:5">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="149" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A149">
         <v>1</v>
       </c>
@@ -4209,10 +4227,10 @@
         <v>20</v>
       </c>
       <c r="E149" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="150" spans="1:5">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="150" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A150">
         <v>1</v>
       </c>
@@ -4226,10 +4244,10 @@
         <v>20</v>
       </c>
       <c r="E150" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="151" spans="1:5">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="151" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A151">
         <v>1</v>
       </c>
@@ -4243,10 +4261,10 @@
         <v>20</v>
       </c>
       <c r="E151" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="152" spans="1:5">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="152" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A152">
         <v>1</v>
       </c>
@@ -4260,10 +4278,10 @@
         <v>20</v>
       </c>
       <c r="E152" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="153" spans="1:5">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="153" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A153">
         <v>1</v>
       </c>
@@ -4277,10 +4295,10 @@
         <v>20</v>
       </c>
       <c r="E153" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="154" spans="1:5">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="154" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A154">
         <v>1</v>
       </c>
@@ -4294,10 +4312,10 @@
         <v>22</v>
       </c>
       <c r="E154" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="155" spans="1:5">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="155" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A155">
         <v>1</v>
       </c>
@@ -4311,10 +4329,10 @@
         <v>22</v>
       </c>
       <c r="E155" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="156" spans="1:5">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="156" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A156">
         <v>1</v>
       </c>
@@ -4328,10 +4346,10 @@
         <v>23</v>
       </c>
       <c r="E156" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="157" spans="1:5">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="157" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A157">
         <v>1</v>
       </c>
@@ -4345,10 +4363,10 @@
         <v>23</v>
       </c>
       <c r="E157" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="158" spans="1:5">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="158" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A158">
         <v>1</v>
       </c>
@@ -4362,10 +4380,10 @@
         <v>23</v>
       </c>
       <c r="E158" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="159" spans="1:5">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="159" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A159">
         <v>1</v>
       </c>
@@ -4379,10 +4397,10 @@
         <v>23</v>
       </c>
       <c r="E159" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="160" spans="1:5">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="160" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A160">
         <v>1</v>
       </c>
@@ -4396,10 +4414,10 @@
         <v>23</v>
       </c>
       <c r="E160" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="161" spans="1:5">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="161" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A161">
         <v>1</v>
       </c>
@@ -4413,10 +4431,10 @@
         <v>23</v>
       </c>
       <c r="E161" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="162" spans="1:5">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="162" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A162">
         <v>1</v>
       </c>
@@ -4430,10 +4448,10 @@
         <v>23</v>
       </c>
       <c r="E162" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="163" spans="1:5">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="163" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A163">
         <v>1</v>
       </c>
@@ -4447,10 +4465,10 @@
         <v>23</v>
       </c>
       <c r="E163" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="164" spans="1:5">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="164" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A164">
         <v>1</v>
       </c>
@@ -4464,10 +4482,10 @@
         <v>23</v>
       </c>
       <c r="E164" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="165" spans="1:5">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="165" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A165">
         <v>1</v>
       </c>
@@ -4481,10 +4499,10 @@
         <v>23</v>
       </c>
       <c r="E165" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="166" spans="1:5">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="166" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A166">
         <v>1</v>
       </c>
@@ -4498,10 +4516,10 @@
         <v>23</v>
       </c>
       <c r="E166" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="167" spans="1:5">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="167" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A167">
         <v>1</v>
       </c>
@@ -4515,10 +4533,10 @@
         <v>23</v>
       </c>
       <c r="E167" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="168" spans="1:5">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="168" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A168">
         <v>1</v>
       </c>
@@ -4532,10 +4550,10 @@
         <v>23</v>
       </c>
       <c r="E168" t="s">
-        <v>341</v>
-      </c>
-    </row>
-    <row r="169" spans="1:5">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="169" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A169">
         <v>1</v>
       </c>
@@ -4549,10 +4567,10 @@
         <v>26</v>
       </c>
       <c r="E169" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="170" spans="1:5">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="170" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A170">
         <v>1</v>
       </c>
@@ -4566,10 +4584,10 @@
         <v>26</v>
       </c>
       <c r="E170" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="171" spans="1:5">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="171" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A171">
         <v>1</v>
       </c>
@@ -4583,10 +4601,10 @@
         <v>26</v>
       </c>
       <c r="E171" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="172" spans="1:5">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="172" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A172">
         <v>1</v>
       </c>
@@ -4600,10 +4618,10 @@
         <v>26</v>
       </c>
       <c r="E172" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="173" spans="1:5">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="173" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A173">
         <v>1</v>
       </c>
@@ -4617,10 +4635,10 @@
         <v>26</v>
       </c>
       <c r="E173" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="174" spans="1:5">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="174" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A174">
         <v>1</v>
       </c>
@@ -4634,10 +4652,10 @@
         <v>26</v>
       </c>
       <c r="E174" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="175" spans="1:5">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="175" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A175">
         <v>1</v>
       </c>
@@ -4651,10 +4669,10 @@
         <v>26</v>
       </c>
       <c r="E175" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="176" spans="1:5">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="176" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A176">
         <v>1</v>
       </c>
@@ -4668,10 +4686,10 @@
         <v>26</v>
       </c>
       <c r="E176" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="177" spans="1:5">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="177" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A177">
         <v>1</v>
       </c>
@@ -4685,10 +4703,10 @@
         <v>26</v>
       </c>
       <c r="E177" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="178" spans="1:5">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="178" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A178">
         <v>1</v>
       </c>
@@ -4702,10 +4720,10 @@
         <v>26</v>
       </c>
       <c r="E178" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="179" spans="1:5">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="179" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A179">
         <v>1</v>
       </c>
@@ -4719,10 +4737,10 @@
         <v>26</v>
       </c>
       <c r="E179" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="180" spans="1:5">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="180" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A180">
         <v>1</v>
       </c>
@@ -4736,10 +4754,10 @@
         <v>26</v>
       </c>
       <c r="E180" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="181" spans="1:5">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="181" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A181">
         <v>1</v>
       </c>
@@ -4753,10 +4771,10 @@
         <v>26</v>
       </c>
       <c r="E181" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="182" spans="1:5">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="182" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A182">
         <v>1</v>
       </c>
@@ -4770,10 +4788,10 @@
         <v>26</v>
       </c>
       <c r="E182" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="183" spans="1:5">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="183" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A183">
         <v>1</v>
       </c>
@@ -4787,10 +4805,10 @@
         <v>26</v>
       </c>
       <c r="E183" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="184" spans="1:5">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="184" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A184">
         <v>1</v>
       </c>
@@ -4804,10 +4822,10 @@
         <v>26</v>
       </c>
       <c r="E184" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="185" spans="1:5">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="185" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A185">
         <v>1</v>
       </c>
@@ -4821,10 +4839,10 @@
         <v>28</v>
       </c>
       <c r="E185" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="186" spans="1:5">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="186" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A186">
         <v>1</v>
       </c>
@@ -4838,10 +4856,10 @@
         <v>28</v>
       </c>
       <c r="E186" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="187" spans="1:5">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="187" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A187">
         <v>1</v>
       </c>
@@ -4855,10 +4873,10 @@
         <v>28</v>
       </c>
       <c r="E187" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="188" spans="1:5">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="188" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A188">
         <v>1</v>
       </c>
@@ -4872,10 +4890,10 @@
         <v>28</v>
       </c>
       <c r="E188" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="189" spans="1:5">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="189" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A189">
         <v>1</v>
       </c>
@@ -4889,10 +4907,10 @@
         <v>28</v>
       </c>
       <c r="E189" t="s">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="190" spans="1:5">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="190" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A190">
         <v>1</v>
       </c>
@@ -4906,10 +4924,10 @@
         <v>30</v>
       </c>
       <c r="E190" t="s">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="191" spans="1:5">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="191" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A191">
         <v>1</v>
       </c>
@@ -4923,10 +4941,10 @@
         <v>30</v>
       </c>
       <c r="E191" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="192" spans="1:5">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="192" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A192">
         <v>1</v>
       </c>
@@ -4940,10 +4958,10 @@
         <v>30</v>
       </c>
       <c r="E192" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="193" spans="1:5">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="193" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A193">
         <v>1</v>
       </c>
@@ -4957,10 +4975,10 @@
         <v>30</v>
       </c>
       <c r="E193" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="194" spans="1:5">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="194" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A194">
         <v>1</v>
       </c>
@@ -4974,10 +4992,10 @@
         <v>30</v>
       </c>
       <c r="E194" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="195" spans="1:5">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="195" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A195">
         <v>1</v>
       </c>
@@ -4991,10 +5009,10 @@
         <v>30</v>
       </c>
       <c r="E195" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="196" spans="1:5">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="196" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A196">
         <v>1</v>
       </c>
@@ -5008,10 +5026,10 @@
         <v>30</v>
       </c>
       <c r="E196" t="s">
-        <v>341</v>
-      </c>
-    </row>
-    <row r="197" spans="1:5">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="197" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A197">
         <v>1</v>
       </c>
@@ -5025,10 +5043,10 @@
         <v>30</v>
       </c>
       <c r="E197" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="198" spans="1:5">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="198" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A198">
         <v>1</v>
       </c>
@@ -5042,10 +5060,10 @@
         <v>30</v>
       </c>
       <c r="E198" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="199" spans="1:5">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="199" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A199">
         <v>1</v>
       </c>
@@ -5059,10 +5077,10 @@
         <v>30</v>
       </c>
       <c r="E199" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="200" spans="1:5">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="200" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A200">
         <v>1</v>
       </c>
@@ -5076,10 +5094,10 @@
         <v>30</v>
       </c>
       <c r="E200" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="201" spans="1:5">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="201" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A201">
         <v>1</v>
       </c>
@@ -5093,10 +5111,10 @@
         <v>30</v>
       </c>
       <c r="E201" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="202" spans="1:5">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="202" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A202">
         <v>1</v>
       </c>
@@ -5110,10 +5128,10 @@
         <v>30</v>
       </c>
       <c r="E202" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="203" spans="1:5">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="203" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A203">
         <v>1</v>
       </c>
@@ -5127,10 +5145,10 @@
         <v>30</v>
       </c>
       <c r="E203" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="204" spans="1:5">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="204" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A204">
         <v>1</v>
       </c>
@@ -5144,10 +5162,10 @@
         <v>30</v>
       </c>
       <c r="E204" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="205" spans="1:5">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="205" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A205">
         <v>1</v>
       </c>
@@ -5161,10 +5179,10 @@
         <v>30</v>
       </c>
       <c r="E205" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="206" spans="1:5">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="206" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A206">
         <v>1</v>
       </c>
@@ -5178,10 +5196,10 @@
         <v>33</v>
       </c>
       <c r="E206" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="207" spans="1:5">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="207" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A207">
         <v>1</v>
       </c>
@@ -5195,10 +5213,10 @@
         <v>33</v>
       </c>
       <c r="E207" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="208" spans="1:5">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="208" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A208">
         <v>1</v>
       </c>
@@ -5212,10 +5230,10 @@
         <v>33</v>
       </c>
       <c r="E208" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="209" spans="1:5">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="209" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A209">
         <v>1</v>
       </c>
@@ -5229,10 +5247,10 @@
         <v>33</v>
       </c>
       <c r="E209" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="210" spans="1:5">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="210" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A210">
         <v>1</v>
       </c>
@@ -5246,10 +5264,10 @@
         <v>33</v>
       </c>
       <c r="E210" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="211" spans="1:5">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="211" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A211">
         <v>1</v>
       </c>
@@ -5263,10 +5281,10 @@
         <v>33</v>
       </c>
       <c r="E211" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="212" spans="1:5">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="212" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A212">
         <v>1</v>
       </c>
@@ -5280,10 +5298,10 @@
         <v>33</v>
       </c>
       <c r="E212" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="213" spans="1:5">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="213" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A213">
         <v>1</v>
       </c>
@@ -5297,10 +5315,10 @@
         <v>33</v>
       </c>
       <c r="E213" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="214" spans="1:5">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="214" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A214">
         <v>1</v>
       </c>
@@ -5314,10 +5332,10 @@
         <v>33</v>
       </c>
       <c r="E214" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="215" spans="1:5">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="215" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A215">
         <v>1</v>
       </c>
@@ -5331,10 +5349,10 @@
         <v>33</v>
       </c>
       <c r="E215" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="216" spans="1:5">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="216" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A216">
         <v>1</v>
       </c>
@@ -5348,10 +5366,10 @@
         <v>33</v>
       </c>
       <c r="E216" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="217" spans="1:5">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="217" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A217">
         <v>1</v>
       </c>
@@ -5365,10 +5383,10 @@
         <v>33</v>
       </c>
       <c r="E217" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="218" spans="1:5">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="218" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A218">
         <v>1</v>
       </c>
@@ -5382,10 +5400,10 @@
         <v>33</v>
       </c>
       <c r="E218" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="219" spans="1:5">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="219" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A219">
         <v>1</v>
       </c>
@@ -5399,10 +5417,10 @@
         <v>33</v>
       </c>
       <c r="E219" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="220" spans="1:5">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="220" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A220">
         <v>1</v>
       </c>
@@ -5416,10 +5434,10 @@
         <v>33</v>
       </c>
       <c r="E220" t="s">
-        <v>353</v>
-      </c>
-    </row>
-    <row r="221" spans="1:5">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="221" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A221">
         <v>1</v>
       </c>
@@ -5433,10 +5451,10 @@
         <v>33</v>
       </c>
       <c r="E221" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="222" spans="1:5">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="222" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A222">
         <v>1</v>
       </c>
@@ -5450,10 +5468,10 @@
         <v>36</v>
       </c>
       <c r="E222" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="223" spans="1:5">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="223" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A223">
         <v>1</v>
       </c>
@@ -5467,10 +5485,10 @@
         <v>36</v>
       </c>
       <c r="E223" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="224" spans="1:5">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="224" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A224">
         <v>1</v>
       </c>
@@ -5484,10 +5502,10 @@
         <v>36</v>
       </c>
       <c r="E224" t="s">
-        <v>354</v>
-      </c>
-    </row>
-    <row r="225" spans="1:5">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="225" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A225">
         <v>1</v>
       </c>
@@ -5501,10 +5519,10 @@
         <v>36</v>
       </c>
       <c r="E225" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="226" spans="1:5">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="226" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A226">
         <v>1</v>
       </c>
@@ -5518,10 +5536,10 @@
         <v>36</v>
       </c>
       <c r="E226" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="227" spans="1:5">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="227" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A227">
         <v>1</v>
       </c>
@@ -5535,10 +5553,10 @@
         <v>36</v>
       </c>
       <c r="E227" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="228" spans="1:5">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="228" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A228">
         <v>1</v>
       </c>
@@ -5552,10 +5570,10 @@
         <v>36</v>
       </c>
       <c r="E228" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="229" spans="1:5">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="229" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A229">
         <v>1</v>
       </c>
@@ -5569,10 +5587,10 @@
         <v>36</v>
       </c>
       <c r="E229" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="230" spans="1:5">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="230" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A230">
         <v>1</v>
       </c>
@@ -5586,10 +5604,10 @@
         <v>36</v>
       </c>
       <c r="E230" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="231" spans="1:5">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="231" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A231">
         <v>1</v>
       </c>
@@ -5603,10 +5621,10 @@
         <v>36</v>
       </c>
       <c r="E231" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="232" spans="1:5">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="232" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A232">
         <v>1</v>
       </c>
@@ -5620,10 +5638,10 @@
         <v>36</v>
       </c>
       <c r="E232" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="233" spans="1:5">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="233" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A233">
         <v>1</v>
       </c>
@@ -5637,10 +5655,10 @@
         <v>37</v>
       </c>
       <c r="E233" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="234" spans="1:5">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="234" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A234">
         <v>1</v>
       </c>
@@ -5654,10 +5672,10 @@
         <v>38</v>
       </c>
       <c r="E234" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="235" spans="1:5">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="235" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A235">
         <v>1</v>
       </c>
@@ -5671,10 +5689,10 @@
         <v>38</v>
       </c>
       <c r="E235" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="236" spans="1:5">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="236" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A236">
         <v>1</v>
       </c>
@@ -5688,10 +5706,10 @@
         <v>38</v>
       </c>
       <c r="E236" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="237" spans="1:5">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="237" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A237">
         <v>1</v>
       </c>
@@ -5705,10 +5723,10 @@
         <v>38</v>
       </c>
       <c r="E237" t="s">
-        <v>356</v>
-      </c>
-    </row>
-    <row r="238" spans="1:5">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="238" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A238">
         <v>1</v>
       </c>
@@ -5722,10 +5740,10 @@
         <v>41</v>
       </c>
       <c r="E238" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="239" spans="1:5">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="239" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A239">
         <v>1</v>
       </c>
@@ -5739,10 +5757,10 @@
         <v>41</v>
       </c>
       <c r="E239" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="240" spans="1:5">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="240" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A240">
         <v>1</v>
       </c>
@@ -5756,10 +5774,10 @@
         <v>41</v>
       </c>
       <c r="E240" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="241" spans="1:5">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="241" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A241">
         <v>1</v>
       </c>
@@ -5773,10 +5791,10 @@
         <v>41</v>
       </c>
       <c r="E241" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="242" spans="1:5">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="242" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A242">
         <v>1</v>
       </c>
@@ -5790,10 +5808,10 @@
         <v>41</v>
       </c>
       <c r="E242" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="243" spans="1:5">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="243" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A243">
         <v>1</v>
       </c>
@@ -5807,10 +5825,10 @@
         <v>41</v>
       </c>
       <c r="E243" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="244" spans="1:5">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="244" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A244">
         <v>1</v>
       </c>
@@ -5824,10 +5842,10 @@
         <v>41</v>
       </c>
       <c r="E244" t="s">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="245" spans="1:5">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="245" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A245">
         <v>1</v>
       </c>
@@ -5841,10 +5859,10 @@
         <v>41</v>
       </c>
       <c r="E245" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="246" spans="1:5">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="246" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A246">
         <v>1</v>
       </c>
@@ -5858,10 +5876,10 @@
         <v>41</v>
       </c>
       <c r="E246" t="s">
-        <v>358</v>
-      </c>
-    </row>
-    <row r="247" spans="1:5">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="247" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A247">
         <v>1</v>
       </c>
@@ -5875,10 +5893,10 @@
         <v>41</v>
       </c>
       <c r="E247" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="248" spans="1:5">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="248" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A248">
         <v>1</v>
       </c>
@@ -5892,10 +5910,10 @@
         <v>41</v>
       </c>
       <c r="E248" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="249" spans="1:5">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="249" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A249">
         <v>1</v>
       </c>
@@ -5909,10 +5927,10 @@
         <v>41</v>
       </c>
       <c r="E249" t="s">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="250" spans="1:5">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="250" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A250">
         <v>1</v>
       </c>
@@ -5926,10 +5944,10 @@
         <v>41</v>
       </c>
       <c r="E250" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="251" spans="1:5">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="251" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A251">
         <v>1</v>
       </c>
@@ -5943,10 +5961,10 @@
         <v>41</v>
       </c>
       <c r="E251" t="s">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="252" spans="1:5">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="252" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A252">
         <v>1</v>
       </c>
@@ -5960,10 +5978,10 @@
         <v>41</v>
       </c>
       <c r="E252" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="253" spans="1:5">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="253" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A253">
         <v>1</v>
       </c>
@@ -5977,10 +5995,10 @@
         <v>41</v>
       </c>
       <c r="E253" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="254" spans="1:5">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="254" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A254">
         <v>1</v>
       </c>
@@ -5994,10 +6012,10 @@
         <v>41</v>
       </c>
       <c r="E254" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="255" spans="1:5">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="255" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A255">
         <v>2</v>
       </c>
@@ -6011,10 +6029,10 @@
         <v>41</v>
       </c>
       <c r="E255" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="256" spans="1:5">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="256" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A256">
         <v>2</v>
       </c>
@@ -6028,10 +6046,10 @@
         <v>41</v>
       </c>
       <c r="E256" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="257" spans="1:5">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="257" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A257">
         <v>2</v>
       </c>
@@ -6045,10 +6063,10 @@
         <v>41</v>
       </c>
       <c r="E257" t="s">
-        <v>362</v>
-      </c>
-    </row>
-    <row r="258" spans="1:5">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="258" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A258">
         <v>2</v>
       </c>
@@ -6062,10 +6080,10 @@
         <v>41</v>
       </c>
       <c r="E258" t="s">
-        <v>363</v>
-      </c>
-    </row>
-    <row r="259" spans="1:5">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="259" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A259">
         <v>2</v>
       </c>
@@ -6079,10 +6097,10 @@
         <v>41</v>
       </c>
       <c r="E259" t="s">
-        <v>364</v>
-      </c>
-    </row>
-    <row r="260" spans="1:5">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="260" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A260">
         <v>2</v>
       </c>
@@ -6096,10 +6114,10 @@
         <v>41</v>
       </c>
       <c r="E260" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="261" spans="1:5">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="261" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A261">
         <v>2</v>
       </c>
@@ -6113,10 +6131,10 @@
         <v>41</v>
       </c>
       <c r="E261" t="s">
-        <v>365</v>
-      </c>
-    </row>
-    <row r="262" spans="1:5">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="262" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A262">
         <v>2</v>
       </c>
@@ -6130,10 +6148,10 @@
         <v>41</v>
       </c>
       <c r="E262" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="263" spans="1:5">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="263" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A263">
         <v>2</v>
       </c>
@@ -6147,10 +6165,10 @@
         <v>41</v>
       </c>
       <c r="E263" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="264" spans="1:5">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="264" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A264">
         <v>2</v>
       </c>
@@ -6164,10 +6182,10 @@
         <v>41</v>
       </c>
       <c r="E264" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="265" spans="1:5">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="265" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A265">
         <v>2</v>
       </c>
@@ -6181,10 +6199,10 @@
         <v>41</v>
       </c>
       <c r="E265" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="266" spans="1:5">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="266" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A266">
         <v>2</v>
       </c>
@@ -6198,10 +6216,10 @@
         <v>41</v>
       </c>
       <c r="E266" t="s">
-        <v>354</v>
-      </c>
-    </row>
-    <row r="267" spans="1:5">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="267" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A267">
         <v>2</v>
       </c>
@@ -6215,10 +6233,10 @@
         <v>41</v>
       </c>
       <c r="E267" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="268" spans="1:5">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="268" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A268">
         <v>2</v>
       </c>
@@ -6232,10 +6250,10 @@
         <v>41</v>
       </c>
       <c r="E268" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="269" spans="1:5">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="269" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A269">
         <v>2</v>
       </c>
@@ -6249,10 +6267,10 @@
         <v>43</v>
       </c>
       <c r="E269" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="270" spans="1:5">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="270" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A270">
         <v>2</v>
       </c>
@@ -6266,10 +6284,10 @@
         <v>43</v>
       </c>
       <c r="E270" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="271" spans="1:5">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="271" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A271">
         <v>2</v>
       </c>
@@ -6283,10 +6301,10 @@
         <v>43</v>
       </c>
       <c r="E271" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="272" spans="1:5">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="272" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A272">
         <v>2</v>
       </c>
@@ -6300,10 +6318,10 @@
         <v>43</v>
       </c>
       <c r="E272" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="273" spans="1:5">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="273" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A273">
         <v>2</v>
       </c>
@@ -6317,10 +6335,10 @@
         <v>43</v>
       </c>
       <c r="E273" t="s">
-        <v>363</v>
-      </c>
-    </row>
-    <row r="274" spans="1:5">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="274" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A274">
         <v>2</v>
       </c>
@@ -6334,10 +6352,10 @@
         <v>43</v>
       </c>
       <c r="E274" t="s">
-        <v>367</v>
-      </c>
-    </row>
-    <row r="275" spans="1:5">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="275" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A275">
         <v>2</v>
       </c>
@@ -6351,10 +6369,10 @@
         <v>43</v>
       </c>
       <c r="E275" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="276" spans="1:5">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="276" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A276">
         <v>2</v>
       </c>
@@ -6368,10 +6386,10 @@
         <v>45</v>
       </c>
       <c r="E276" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="277" spans="1:5">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="277" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A277">
         <v>2</v>
       </c>
@@ -6385,10 +6403,10 @@
         <v>45</v>
       </c>
       <c r="E277" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="278" spans="1:5">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="278" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A278">
         <v>2</v>
       </c>
@@ -6402,10 +6420,10 @@
         <v>45</v>
       </c>
       <c r="E278" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="279" spans="1:5">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="279" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A279">
         <v>2</v>
       </c>
@@ -6419,10 +6437,10 @@
         <v>45</v>
       </c>
       <c r="E279" t="s">
-        <v>369</v>
-      </c>
-    </row>
-    <row r="280" spans="1:5">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="280" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A280">
         <v>2</v>
       </c>
@@ -6436,10 +6454,10 @@
         <v>45</v>
       </c>
       <c r="E280" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="281" spans="1:5">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="281" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A281">
         <v>2</v>
       </c>
@@ -6453,10 +6471,10 @@
         <v>46</v>
       </c>
       <c r="E281" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="282" spans="1:5">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="282" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A282">
         <v>2</v>
       </c>
@@ -6470,10 +6488,10 @@
         <v>47</v>
       </c>
       <c r="E282" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="283" spans="1:5">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="283" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A283">
         <v>2</v>
       </c>
@@ -6487,10 +6505,10 @@
         <v>47</v>
       </c>
       <c r="E283" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="284" spans="1:5">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="284" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A284">
         <v>2</v>
       </c>
@@ -6504,10 +6522,10 @@
         <v>47</v>
       </c>
       <c r="E284" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="285" spans="1:5">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="285" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A285">
         <v>2</v>
       </c>
@@ -6521,10 +6539,10 @@
         <v>47</v>
       </c>
       <c r="E285" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="286" spans="1:5">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="286" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A286">
         <v>2</v>
       </c>
@@ -6538,10 +6556,10 @@
         <v>47</v>
       </c>
       <c r="E286" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="287" spans="1:5">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="287" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A287">
         <v>2</v>
       </c>
@@ -6555,10 +6573,10 @@
         <v>47</v>
       </c>
       <c r="E287" t="s">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="288" spans="1:5">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="288" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A288">
         <v>2</v>
       </c>
@@ -6572,10 +6590,10 @@
         <v>47</v>
       </c>
       <c r="E288" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="289" spans="1:5">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="289" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A289">
         <v>2</v>
       </c>
@@ -6589,10 +6607,10 @@
         <v>49</v>
       </c>
       <c r="E289" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="290" spans="1:5">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="290" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A290">
         <v>2</v>
       </c>
@@ -6606,10 +6624,10 @@
         <v>49</v>
       </c>
       <c r="E290" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="291" spans="1:5">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="291" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A291">
         <v>2</v>
       </c>
@@ -6623,10 +6641,10 @@
         <v>49</v>
       </c>
       <c r="E291" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="292" spans="1:5">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="292" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A292">
         <v>2</v>
       </c>
@@ -6640,10 +6658,10 @@
         <v>49</v>
       </c>
       <c r="E292" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="293" spans="1:5">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="293" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A293">
         <v>2</v>
       </c>
@@ -6657,10 +6675,10 @@
         <v>49</v>
       </c>
       <c r="E293" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="294" spans="1:5">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="294" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A294">
         <v>2</v>
       </c>
@@ -6674,10 +6692,10 @@
         <v>49</v>
       </c>
       <c r="E294" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="295" spans="1:5">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="295" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A295">
         <v>2</v>
       </c>
@@ -6691,10 +6709,10 @@
         <v>49</v>
       </c>
       <c r="E295" t="s">
-        <v>371</v>
-      </c>
-    </row>
-    <row r="296" spans="1:5">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="296" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A296">
         <v>2</v>
       </c>
@@ -6708,10 +6726,10 @@
         <v>49</v>
       </c>
       <c r="E296" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="297" spans="1:5">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="297" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A297">
         <v>2</v>
       </c>
@@ -6725,10 +6743,10 @@
         <v>49</v>
       </c>
       <c r="E297" t="s">
-        <v>372</v>
-      </c>
-    </row>
-    <row r="298" spans="1:5">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="298" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A298">
         <v>2</v>
       </c>
@@ -6742,10 +6760,10 @@
         <v>49</v>
       </c>
       <c r="E298" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="299" spans="1:5">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="299" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A299">
         <v>2</v>
       </c>
@@ -6759,10 +6777,10 @@
         <v>49</v>
       </c>
       <c r="E299" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="300" spans="1:5">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="300" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A300">
         <v>2</v>
       </c>
@@ -6776,10 +6794,10 @@
         <v>49</v>
       </c>
       <c r="E300" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="301" spans="1:5">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="301" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A301">
         <v>2</v>
       </c>
@@ -6793,10 +6811,10 @@
         <v>49</v>
       </c>
       <c r="E301" t="s">
-        <v>374</v>
-      </c>
-    </row>
-    <row r="302" spans="1:5">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="302" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A302">
         <v>2</v>
       </c>
@@ -6810,10 +6828,10 @@
         <v>49</v>
       </c>
       <c r="E302" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="303" spans="1:5">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="303" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A303">
         <v>2</v>
       </c>
@@ -6827,10 +6845,10 @@
         <v>52</v>
       </c>
       <c r="E303" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="304" spans="1:5">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="304" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A304">
         <v>2</v>
       </c>
@@ -6844,10 +6862,10 @@
         <v>52</v>
       </c>
       <c r="E304" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="305" spans="1:5">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="305" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A305">
         <v>2</v>
       </c>
@@ -6861,10 +6879,10 @@
         <v>52</v>
       </c>
       <c r="E305" t="s">
-        <v>376</v>
-      </c>
-    </row>
-    <row r="306" spans="1:5">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="306" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A306">
         <v>2</v>
       </c>
@@ -6878,10 +6896,10 @@
         <v>52</v>
       </c>
       <c r="E306" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="307" spans="1:5">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="307" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A307">
         <v>2</v>
       </c>
@@ -6895,10 +6913,10 @@
         <v>52</v>
       </c>
       <c r="E307" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="308" spans="1:5">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="308" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A308">
         <v>2</v>
       </c>
@@ -6912,10 +6930,10 @@
         <v>52</v>
       </c>
       <c r="E308" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="309" spans="1:5">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="309" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A309">
         <v>2</v>
       </c>
@@ -6929,10 +6947,10 @@
         <v>52</v>
       </c>
       <c r="E309" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="310" spans="1:5">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="310" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A310">
         <v>2</v>
       </c>
@@ -6946,10 +6964,10 @@
         <v>52</v>
       </c>
       <c r="E310" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="311" spans="1:5">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="311" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A311">
         <v>2</v>
       </c>
@@ -6963,10 +6981,10 @@
         <v>52</v>
       </c>
       <c r="E311" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="312" spans="1:5">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="312" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A312">
         <v>2</v>
       </c>
@@ -6980,10 +6998,10 @@
         <v>52</v>
       </c>
       <c r="E312" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="313" spans="1:5">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="313" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A313">
         <v>2</v>
       </c>
@@ -6997,10 +7015,10 @@
         <v>52</v>
       </c>
       <c r="E313" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="314" spans="1:5">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="314" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A314">
         <v>2</v>
       </c>
@@ -7014,10 +7032,10 @@
         <v>52</v>
       </c>
       <c r="E314" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="315" spans="1:5">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="315" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A315">
         <v>2</v>
       </c>
@@ -7031,10 +7049,10 @@
         <v>52</v>
       </c>
       <c r="E315" t="s">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="316" spans="1:5">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="316" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A316">
         <v>2</v>
       </c>
@@ -7048,10 +7066,10 @@
         <v>52</v>
       </c>
       <c r="E316" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="317" spans="1:5">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="317" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A317">
         <v>2</v>
       </c>
@@ -7065,10 +7083,10 @@
         <v>52</v>
       </c>
       <c r="E317" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="318" spans="1:5">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="318" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A318">
         <v>2</v>
       </c>
@@ -7082,10 +7100,10 @@
         <v>52</v>
       </c>
       <c r="E318" t="s">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="319" spans="1:5">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="319" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A319">
         <v>2</v>
       </c>
@@ -7099,10 +7117,10 @@
         <v>52</v>
       </c>
       <c r="E319" t="s">
-        <v>377</v>
-      </c>
-    </row>
-    <row r="320" spans="1:5">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="320" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A320">
         <v>2</v>
       </c>
@@ -7116,10 +7134,10 @@
         <v>52</v>
       </c>
       <c r="E320" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="321" spans="1:5">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="321" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A321">
         <v>2</v>
       </c>
@@ -7133,10 +7151,10 @@
         <v>53</v>
       </c>
       <c r="E321" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="322" spans="1:5">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="322" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A322">
         <v>2</v>
       </c>
@@ -7150,10 +7168,10 @@
         <v>54</v>
       </c>
       <c r="E322" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="323" spans="1:5">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="323" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A323">
         <v>2</v>
       </c>
@@ -7167,10 +7185,10 @@
         <v>54</v>
       </c>
       <c r="E323" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="324" spans="1:5">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="324" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A324">
         <v>2</v>
       </c>
@@ -7184,10 +7202,10 @@
         <v>54</v>
       </c>
       <c r="E324" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="325" spans="1:5">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="325" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A325">
         <v>2</v>
       </c>
@@ -7201,10 +7219,10 @@
         <v>54</v>
       </c>
       <c r="E325" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="326" spans="1:5">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="326" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A326">
         <v>2</v>
       </c>
@@ -7218,10 +7236,10 @@
         <v>54</v>
       </c>
       <c r="E326" t="s">
-        <v>378</v>
-      </c>
-    </row>
-    <row r="327" spans="1:5">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="327" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A327">
         <v>2</v>
       </c>
@@ -7235,10 +7253,10 @@
         <v>54</v>
       </c>
       <c r="E327" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="328" spans="1:5">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="328" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A328">
         <v>2</v>
       </c>
@@ -7252,10 +7270,10 @@
         <v>54</v>
       </c>
       <c r="E328" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="329" spans="1:5">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="329" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A329">
         <v>2</v>
       </c>
@@ -7269,10 +7287,10 @@
         <v>54</v>
       </c>
       <c r="E329" t="s">
-        <v>379</v>
-      </c>
-    </row>
-    <row r="330" spans="1:5">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="330" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A330">
         <v>2</v>
       </c>
@@ -7286,10 +7304,10 @@
         <v>54</v>
       </c>
       <c r="E330" t="s">
-        <v>380</v>
-      </c>
-    </row>
-    <row r="331" spans="1:5">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="331" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A331">
         <v>2</v>
       </c>
@@ -7303,10 +7321,10 @@
         <v>54</v>
       </c>
       <c r="E331" t="s">
-        <v>381</v>
-      </c>
-    </row>
-    <row r="332" spans="1:5">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="332" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A332">
         <v>2</v>
       </c>
@@ -7320,10 +7338,10 @@
         <v>54</v>
       </c>
       <c r="E332" t="s">
-        <v>382</v>
-      </c>
-    </row>
-    <row r="333" spans="1:5">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="333" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A333">
         <v>2</v>
       </c>
@@ -7337,10 +7355,10 @@
         <v>54</v>
       </c>
       <c r="E333" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="334" spans="1:5">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="334" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A334">
         <v>2</v>
       </c>
@@ -7354,10 +7372,10 @@
         <v>54</v>
       </c>
       <c r="E334" t="s">
-        <v>383</v>
-      </c>
-    </row>
-    <row r="335" spans="1:5">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="335" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A335">
         <v>2</v>
       </c>
@@ -7371,10 +7389,10 @@
         <v>54</v>
       </c>
       <c r="E335" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="336" spans="1:5">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="336" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A336">
         <v>2</v>
       </c>
@@ -7388,10 +7406,10 @@
         <v>56</v>
       </c>
       <c r="E336" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="337" spans="1:5">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="337" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A337">
         <v>2</v>
       </c>
@@ -7405,10 +7423,10 @@
         <v>56</v>
       </c>
       <c r="E337" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="338" spans="1:5">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="338" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A338">
         <v>2</v>
       </c>
@@ -7422,10 +7440,10 @@
         <v>56</v>
       </c>
       <c r="E338" t="s">
-        <v>367</v>
-      </c>
-    </row>
-    <row r="339" spans="1:5">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="339" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A339">
         <v>2</v>
       </c>
@@ -7439,10 +7457,10 @@
         <v>56</v>
       </c>
       <c r="E339" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="340" spans="1:5">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="340" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A340">
         <v>2</v>
       </c>
@@ -7456,10 +7474,10 @@
         <v>56</v>
       </c>
       <c r="E340" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="341" spans="1:5">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="341" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A341">
         <v>2</v>
       </c>
@@ -7473,10 +7491,10 @@
         <v>56</v>
       </c>
       <c r="E341" t="s">
-        <v>385</v>
-      </c>
-    </row>
-    <row r="342" spans="1:5">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="342" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A342">
         <v>2</v>
       </c>
@@ -7490,10 +7508,10 @@
         <v>56</v>
       </c>
       <c r="E342" t="s">
-        <v>386</v>
-      </c>
-    </row>
-    <row r="343" spans="1:5">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="343" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A343">
         <v>2</v>
       </c>
@@ -7507,10 +7525,10 @@
         <v>56</v>
       </c>
       <c r="E343" t="s">
-        <v>387</v>
-      </c>
-    </row>
-    <row r="344" spans="1:5">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="344" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A344">
         <v>2</v>
       </c>
@@ -7524,10 +7542,10 @@
         <v>56</v>
       </c>
       <c r="E344" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="345" spans="1:5">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="345" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A345">
         <v>2</v>
       </c>
@@ -7541,10 +7559,10 @@
         <v>56</v>
       </c>
       <c r="E345" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="346" spans="1:5">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="346" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A346">
         <v>2</v>
       </c>
@@ -7558,10 +7576,10 @@
         <v>56</v>
       </c>
       <c r="E346" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="347" spans="1:5">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="347" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A347">
         <v>2</v>
       </c>
@@ -7575,10 +7593,10 @@
         <v>56</v>
       </c>
       <c r="E347" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="348" spans="1:5">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="348" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A348">
         <v>2</v>
       </c>
@@ -7592,10 +7610,10 @@
         <v>58</v>
       </c>
       <c r="E348" t="s">
-        <v>388</v>
-      </c>
-    </row>
-    <row r="349" spans="1:5">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="349" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A349">
         <v>2</v>
       </c>
@@ -7609,10 +7627,10 @@
         <v>58</v>
       </c>
       <c r="E349" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="350" spans="1:5">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="350" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A350">
         <v>2</v>
       </c>
@@ -7626,10 +7644,10 @@
         <v>58</v>
       </c>
       <c r="E350" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="351" spans="1:5">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="351" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A351">
         <v>2</v>
       </c>
@@ -7643,10 +7661,10 @@
         <v>60</v>
       </c>
       <c r="E351" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="352" spans="1:5">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="352" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A352">
         <v>2</v>
       </c>
@@ -7660,10 +7678,10 @@
         <v>60</v>
       </c>
       <c r="E352" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="353" spans="1:5">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="353" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A353">
         <v>2</v>
       </c>
@@ -7677,10 +7695,10 @@
         <v>60</v>
       </c>
       <c r="E353" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="354" spans="1:5">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="354" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A354">
         <v>2</v>
       </c>
@@ -7694,10 +7712,10 @@
         <v>60</v>
       </c>
       <c r="E354" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="355" spans="1:5">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="355" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A355">
         <v>2</v>
       </c>
@@ -7711,10 +7729,10 @@
         <v>60</v>
       </c>
       <c r="E355" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="356" spans="1:5">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="356" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A356">
         <v>2</v>
       </c>
@@ -7728,10 +7746,10 @@
         <v>60</v>
       </c>
       <c r="E356" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="357" spans="1:5">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="357" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A357">
         <v>2</v>
       </c>
@@ -7745,10 +7763,10 @@
         <v>60</v>
       </c>
       <c r="E357" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="358" spans="1:5">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="358" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A358">
         <v>2</v>
       </c>
@@ -7762,10 +7780,10 @@
         <v>60</v>
       </c>
       <c r="E358" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="359" spans="1:5">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="359" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A359">
         <v>2</v>
       </c>
@@ -7779,10 +7797,10 @@
         <v>60</v>
       </c>
       <c r="E359" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="360" spans="1:5">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="360" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A360">
         <v>2</v>
       </c>
@@ -7796,10 +7814,10 @@
         <v>60</v>
       </c>
       <c r="E360" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="361" spans="1:5">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="361" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A361">
         <v>2</v>
       </c>
@@ -7813,10 +7831,10 @@
         <v>60</v>
       </c>
       <c r="E361" t="s">
-        <v>391</v>
-      </c>
-    </row>
-    <row r="362" spans="1:5">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="362" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A362">
         <v>2</v>
       </c>
@@ -7830,10 +7848,10 @@
         <v>60</v>
       </c>
       <c r="E362" t="s">
-        <v>392</v>
-      </c>
-    </row>
-    <row r="363" spans="1:5">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="363" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A363">
         <v>2</v>
       </c>
@@ -7847,10 +7865,10 @@
         <v>62</v>
       </c>
       <c r="E363" t="s">
-        <v>393</v>
-      </c>
-    </row>
-    <row r="364" spans="1:5">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="364" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A364">
         <v>2</v>
       </c>
@@ -7864,10 +7882,10 @@
         <v>62</v>
       </c>
       <c r="E364" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="365" spans="1:5">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="365" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A365">
         <v>2</v>
       </c>
@@ -7881,10 +7899,10 @@
         <v>62</v>
       </c>
       <c r="E365" t="s">
-        <v>394</v>
-      </c>
-    </row>
-    <row r="366" spans="1:5">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="366" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A366">
         <v>2</v>
       </c>
@@ -7898,10 +7916,10 @@
         <v>62</v>
       </c>
       <c r="E366" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="367" spans="1:5">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="367" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A367">
         <v>2</v>
       </c>
@@ -7915,10 +7933,10 @@
         <v>62</v>
       </c>
       <c r="E367" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="368" spans="1:5">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="368" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A368">
         <v>2</v>
       </c>
@@ -7932,10 +7950,10 @@
         <v>64</v>
       </c>
       <c r="E368" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="369" spans="1:5">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="369" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A369">
         <v>2</v>
       </c>
@@ -7949,10 +7967,10 @@
         <v>64</v>
       </c>
       <c r="E369" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="370" spans="1:5">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="370" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A370">
         <v>2</v>
       </c>
@@ -7966,10 +7984,10 @@
         <v>64</v>
       </c>
       <c r="E370" t="s">
-        <v>396</v>
-      </c>
-    </row>
-    <row r="371" spans="1:5">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="371" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A371">
         <v>2</v>
       </c>
@@ -7983,10 +8001,10 @@
         <v>64</v>
       </c>
       <c r="E371" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="372" spans="1:5">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="372" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A372">
         <v>2</v>
       </c>
@@ -8000,10 +8018,10 @@
         <v>64</v>
       </c>
       <c r="E372" t="s">
-        <v>397</v>
-      </c>
-    </row>
-    <row r="373" spans="1:5">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="373" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A373">
         <v>2</v>
       </c>
@@ -8017,10 +8035,10 @@
         <v>64</v>
       </c>
       <c r="E373" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="374" spans="1:5">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="374" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A374">
         <v>2</v>
       </c>
@@ -8034,10 +8052,10 @@
         <v>64</v>
       </c>
       <c r="E374" t="s">
-        <v>398</v>
-      </c>
-    </row>
-    <row r="375" spans="1:5">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="375" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A375">
         <v>2</v>
       </c>
@@ -8051,10 +8069,10 @@
         <v>64</v>
       </c>
       <c r="E375" t="s">
-        <v>398</v>
-      </c>
-    </row>
-    <row r="376" spans="1:5">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="376" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A376">
         <v>2</v>
       </c>
@@ -8068,10 +8086,10 @@
         <v>64</v>
       </c>
       <c r="E376" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="377" spans="1:5">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="377" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A377">
         <v>2</v>
       </c>
@@ -8085,10 +8103,10 @@
         <v>64</v>
       </c>
       <c r="E377" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="378" spans="1:5">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="378" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A378">
         <v>2</v>
       </c>
@@ -8102,10 +8120,10 @@
         <v>64</v>
       </c>
       <c r="E378" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="379" spans="1:5">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="379" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A379">
         <v>2</v>
       </c>
@@ -8119,10 +8137,10 @@
         <v>64</v>
       </c>
       <c r="E379" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="380" spans="1:5">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="380" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A380">
         <v>2</v>
       </c>
@@ -8136,10 +8154,10 @@
         <v>64</v>
       </c>
       <c r="E380" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="381" spans="1:5">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="381" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A381">
         <v>2</v>
       </c>
@@ -8153,10 +8171,10 @@
         <v>64</v>
       </c>
       <c r="E381" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="382" spans="1:5">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="382" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A382">
         <v>2</v>
       </c>
@@ -8170,10 +8188,10 @@
         <v>64</v>
       </c>
       <c r="E382" t="s">
-        <v>362</v>
-      </c>
-    </row>
-    <row r="383" spans="1:5">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="383" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A383">
         <v>2</v>
       </c>
@@ -8187,10 +8205,10 @@
         <v>64</v>
       </c>
       <c r="E383" t="s">
-        <v>363</v>
-      </c>
-    </row>
-    <row r="384" spans="1:5">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="384" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A384">
         <v>2</v>
       </c>
@@ -8204,10 +8222,10 @@
         <v>64</v>
       </c>
       <c r="E384" t="s">
-        <v>354</v>
-      </c>
-    </row>
-    <row r="385" spans="1:5">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="385" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A385">
         <v>2</v>
       </c>
@@ -8221,10 +8239,10 @@
         <v>64</v>
       </c>
       <c r="E385" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="386" spans="1:5">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="386" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A386">
         <v>2</v>
       </c>
@@ -8238,10 +8256,10 @@
         <v>64</v>
       </c>
       <c r="E386" t="s">
-        <v>399</v>
-      </c>
-    </row>
-    <row r="387" spans="1:5">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="387" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A387">
         <v>2</v>
       </c>
@@ -8255,10 +8273,10 @@
         <v>64</v>
       </c>
       <c r="E387" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="388" spans="1:5">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="388" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A388">
         <v>2</v>
       </c>
@@ -8272,10 +8290,10 @@
         <v>64</v>
       </c>
       <c r="E388" t="s">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="389" spans="1:5">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="389" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A389">
         <v>2</v>
       </c>
@@ -8289,10 +8307,10 @@
         <v>64</v>
       </c>
       <c r="E389" t="s">
-        <v>401</v>
-      </c>
-    </row>
-    <row r="390" spans="1:5">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="390" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A390">
         <v>2</v>
       </c>
@@ -8306,10 +8324,10 @@
         <v>64</v>
       </c>
       <c r="E390" t="s">
-        <v>402</v>
-      </c>
-    </row>
-    <row r="391" spans="1:5">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="391" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A391">
         <v>2</v>
       </c>
@@ -8323,10 +8341,10 @@
         <v>65</v>
       </c>
       <c r="E391" t="s">
-        <v>403</v>
-      </c>
-    </row>
-    <row r="392" spans="1:5">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="392" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A392">
         <v>2</v>
       </c>
@@ -8340,10 +8358,10 @@
         <v>65</v>
       </c>
       <c r="E392" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="393" spans="1:5">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="393" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A393">
         <v>2</v>
       </c>
@@ -8357,10 +8375,10 @@
         <v>65</v>
       </c>
       <c r="E393" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="394" spans="1:5">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="394" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A394">
         <v>2</v>
       </c>
@@ -8374,10 +8392,10 @@
         <v>65</v>
       </c>
       <c r="E394" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="395" spans="1:5">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="395" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A395">
         <v>2</v>
       </c>
@@ -8391,10 +8409,10 @@
         <v>65</v>
       </c>
       <c r="E395" t="s">
-        <v>398</v>
-      </c>
-    </row>
-    <row r="396" spans="1:5">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="396" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A396">
         <v>2</v>
       </c>
@@ -8408,10 +8426,10 @@
         <v>65</v>
       </c>
       <c r="E396" t="s">
-        <v>404</v>
-      </c>
-    </row>
-    <row r="397" spans="1:5">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="397" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A397">
         <v>2</v>
       </c>
@@ -8425,10 +8443,10 @@
         <v>65</v>
       </c>
       <c r="E397" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="398" spans="1:5">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="398" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A398">
         <v>2</v>
       </c>
@@ -8442,10 +8460,10 @@
         <v>67</v>
       </c>
       <c r="E398" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="399" spans="1:5">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="399" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A399">
         <v>2</v>
       </c>
@@ -8459,10 +8477,10 @@
         <v>67</v>
       </c>
       <c r="E399" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="400" spans="1:5">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="400" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A400">
         <v>2</v>
       </c>
@@ -8476,10 +8494,10 @@
         <v>67</v>
       </c>
       <c r="E400" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="401" spans="1:5">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="401" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A401">
         <v>2</v>
       </c>
@@ -8493,10 +8511,10 @@
         <v>67</v>
       </c>
       <c r="E401" t="s">
-        <v>405</v>
-      </c>
-    </row>
-    <row r="402" spans="1:5">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="402" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A402">
         <v>2</v>
       </c>
@@ -8510,10 +8528,10 @@
         <v>69</v>
       </c>
       <c r="E402" t="s">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="403" spans="1:5">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="403" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A403">
         <v>2</v>
       </c>
@@ -8527,10 +8545,10 @@
         <v>69</v>
       </c>
       <c r="E403" t="s">
-        <v>406</v>
-      </c>
-    </row>
-    <row r="404" spans="1:5">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="404" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A404">
         <v>2</v>
       </c>
@@ -8544,10 +8562,10 @@
         <v>69</v>
       </c>
       <c r="E404" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="405" spans="1:5">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="405" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A405">
         <v>2</v>
       </c>
@@ -8561,10 +8579,10 @@
         <v>69</v>
       </c>
       <c r="E405" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="406" spans="1:5">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="406" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A406">
         <v>2</v>
       </c>
@@ -8578,10 +8596,10 @@
         <v>69</v>
       </c>
       <c r="E406" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="407" spans="1:5">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="407" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A407">
         <v>2</v>
       </c>
@@ -8595,10 +8613,10 @@
         <v>69</v>
       </c>
       <c r="E407" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="408" spans="1:5">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="408" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A408">
         <v>2</v>
       </c>
@@ -8612,10 +8630,10 @@
         <v>69</v>
       </c>
       <c r="E408" t="s">
-        <v>407</v>
-      </c>
-    </row>
-    <row r="409" spans="1:5">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="409" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A409">
         <v>2</v>
       </c>
@@ -8629,10 +8647,10 @@
         <v>69</v>
       </c>
       <c r="E409" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="410" spans="1:5">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="410" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A410">
         <v>2</v>
       </c>
@@ -8646,10 +8664,10 @@
         <v>69</v>
       </c>
       <c r="E410" t="s">
-        <v>382</v>
-      </c>
-    </row>
-    <row r="411" spans="1:5">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="411" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A411">
         <v>2</v>
       </c>
@@ -8663,10 +8681,10 @@
         <v>69</v>
       </c>
       <c r="E411" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="412" spans="1:5">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="412" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A412">
         <v>2</v>
       </c>
@@ -8680,10 +8698,10 @@
         <v>69</v>
       </c>
       <c r="E412" t="s">
-        <v>408</v>
-      </c>
-    </row>
-    <row r="413" spans="1:5">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="413" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A413">
         <v>2</v>
       </c>
@@ -8697,10 +8715,10 @@
         <v>69</v>
       </c>
       <c r="E413" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="414" spans="1:5">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="414" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A414">
         <v>2</v>
       </c>
@@ -8714,10 +8732,10 @@
         <v>69</v>
       </c>
       <c r="E414" t="s">
-        <v>409</v>
-      </c>
-    </row>
-    <row r="415" spans="1:5">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="415" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A415">
         <v>2</v>
       </c>
@@ -8731,10 +8749,10 @@
         <v>69</v>
       </c>
       <c r="E415" t="s">
-        <v>397</v>
-      </c>
-    </row>
-    <row r="416" spans="1:5">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="416" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A416">
         <v>2</v>
       </c>
@@ -8748,10 +8766,10 @@
         <v>69</v>
       </c>
       <c r="E416" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="417" spans="1:5">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="417" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A417">
         <v>2</v>
       </c>
@@ -8765,10 +8783,10 @@
         <v>69</v>
       </c>
       <c r="E417" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="418" spans="1:5">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="418" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A418">
         <v>2</v>
       </c>
@@ -8782,10 +8800,10 @@
         <v>69</v>
       </c>
       <c r="E418" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="419" spans="1:5">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="419" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A419">
         <v>2</v>
       </c>
@@ -8799,10 +8817,10 @@
         <v>69</v>
       </c>
       <c r="E419" t="s">
-        <v>394</v>
-      </c>
-    </row>
-    <row r="420" spans="1:5">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="420" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A420">
         <v>2</v>
       </c>
@@ -8816,10 +8834,10 @@
         <v>69</v>
       </c>
       <c r="E420" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="421" spans="1:5">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="421" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A421">
         <v>2</v>
       </c>
@@ -8833,10 +8851,10 @@
         <v>69</v>
       </c>
       <c r="E421" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="422" spans="1:5">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="422" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A422">
         <v>2</v>
       </c>
@@ -8850,10 +8868,10 @@
         <v>70</v>
       </c>
       <c r="E422" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="423" spans="1:5">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="423" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A423">
         <v>2</v>
       </c>
@@ -8867,10 +8885,10 @@
         <v>71</v>
       </c>
       <c r="E423" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="424" spans="1:5">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="424" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A424">
         <v>2</v>
       </c>
@@ -8884,10 +8902,10 @@
         <v>73</v>
       </c>
       <c r="E424" t="s">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="425" spans="1:5">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="425" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A425">
         <v>2</v>
       </c>
@@ -8901,10 +8919,10 @@
         <v>73</v>
       </c>
       <c r="E425" t="s">
-        <v>410</v>
-      </c>
-    </row>
-    <row r="426" spans="1:5">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="426" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A426">
         <v>2</v>
       </c>
@@ -8918,10 +8936,10 @@
         <v>73</v>
       </c>
       <c r="E426" t="s">
-        <v>411</v>
-      </c>
-    </row>
-    <row r="427" spans="1:5">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="427" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A427">
         <v>2</v>
       </c>
@@ -8935,10 +8953,10 @@
         <v>73</v>
       </c>
       <c r="E427" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="428" spans="1:5">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="428" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A428">
         <v>2</v>
       </c>
@@ -8952,10 +8970,10 @@
         <v>76</v>
       </c>
       <c r="E428" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="429" spans="1:5">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="429" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A429">
         <v>2</v>
       </c>
@@ -8969,10 +8987,10 @@
         <v>76</v>
       </c>
       <c r="E429" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="430" spans="1:5">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="430" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A430">
         <v>2</v>
       </c>
@@ -8986,10 +9004,10 @@
         <v>76</v>
       </c>
       <c r="E430" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="431" spans="1:5">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="431" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A431">
         <v>2</v>
       </c>
@@ -9003,10 +9021,10 @@
         <v>76</v>
       </c>
       <c r="E431" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="432" spans="1:5">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="432" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A432">
         <v>2</v>
       </c>
@@ -9020,10 +9038,10 @@
         <v>76</v>
       </c>
       <c r="E432" t="s">
-        <v>399</v>
-      </c>
-    </row>
-    <row r="433" spans="1:5">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="433" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A433">
         <v>2</v>
       </c>
@@ -9037,10 +9055,10 @@
         <v>76</v>
       </c>
       <c r="E433" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="434" spans="1:5">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="434" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A434">
         <v>2</v>
       </c>
@@ -9054,10 +9072,10 @@
         <v>76</v>
       </c>
       <c r="E434" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="435" spans="1:5">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="435" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A435">
         <v>2</v>
       </c>
@@ -9071,10 +9089,10 @@
         <v>76</v>
       </c>
       <c r="E435" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="436" spans="1:5">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="436" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A436">
         <v>2</v>
       </c>
@@ -9088,10 +9106,10 @@
         <v>77</v>
       </c>
       <c r="E436" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="437" spans="1:5">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="437" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A437">
         <v>2</v>
       </c>
@@ -9105,10 +9123,10 @@
         <v>78</v>
       </c>
       <c r="E437" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="438" spans="1:5">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="438" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A438">
         <v>2</v>
       </c>
@@ -9122,10 +9140,10 @@
         <v>79</v>
       </c>
       <c r="E438" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="439" spans="1:5">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="439" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A439">
         <v>2</v>
       </c>
@@ -9139,10 +9157,10 @@
         <v>80</v>
       </c>
       <c r="E439" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="440" spans="1:5">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="440" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A440">
         <v>2</v>
       </c>
@@ -9156,10 +9174,10 @@
         <v>80</v>
       </c>
       <c r="E440" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="441" spans="1:5">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="441" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A441">
         <v>2</v>
       </c>
@@ -9173,10 +9191,10 @@
         <v>80</v>
       </c>
       <c r="E441" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="442" spans="1:5">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="442" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A442">
         <v>2</v>
       </c>
@@ -9190,10 +9208,10 @@
         <v>80</v>
       </c>
       <c r="E442" t="s">
-        <v>413</v>
-      </c>
-    </row>
-    <row r="443" spans="1:5">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="443" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A443">
         <v>2</v>
       </c>
@@ -9207,10 +9225,10 @@
         <v>80</v>
       </c>
       <c r="E443" t="s">
-        <v>414</v>
-      </c>
-    </row>
-    <row r="444" spans="1:5">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="444" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A444">
         <v>2</v>
       </c>
@@ -9224,10 +9242,10 @@
         <v>80</v>
       </c>
       <c r="E444" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="445" spans="1:5">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="445" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A445">
         <v>2</v>
       </c>
@@ -9241,10 +9259,10 @@
         <v>83</v>
       </c>
       <c r="E445" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="446" spans="1:5">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="446" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A446">
         <v>2</v>
       </c>
@@ -9258,10 +9276,10 @@
         <v>83</v>
       </c>
       <c r="E446" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="447" spans="1:5">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="447" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A447">
         <v>2</v>
       </c>
@@ -9275,10 +9293,10 @@
         <v>83</v>
       </c>
       <c r="E447" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="448" spans="1:5">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="448" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A448">
         <v>2</v>
       </c>
@@ -9292,10 +9310,10 @@
         <v>83</v>
       </c>
       <c r="E448" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="449" spans="1:5">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="449" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A449">
         <v>2</v>
       </c>
@@ -9309,10 +9327,10 @@
         <v>83</v>
       </c>
       <c r="E449" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="450" spans="1:5">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="450" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A450">
         <v>2</v>
       </c>
@@ -9326,10 +9344,10 @@
         <v>83</v>
       </c>
       <c r="E450" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="451" spans="1:5">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="451" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A451">
         <v>2</v>
       </c>
@@ -9343,10 +9361,10 @@
         <v>83</v>
       </c>
       <c r="E451" t="s">
-        <v>415</v>
-      </c>
-    </row>
-    <row r="452" spans="1:5">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="452" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A452">
         <v>2</v>
       </c>
@@ -9360,10 +9378,10 @@
         <v>83</v>
       </c>
       <c r="E452" t="s">
-        <v>416</v>
-      </c>
-    </row>
-    <row r="453" spans="1:5">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="453" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A453">
         <v>2</v>
       </c>
@@ -9377,10 +9395,10 @@
         <v>83</v>
       </c>
       <c r="E453" t="s">
-        <v>402</v>
-      </c>
-    </row>
-    <row r="454" spans="1:5">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="454" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A454">
         <v>2</v>
       </c>
@@ -9394,10 +9412,10 @@
         <v>84</v>
       </c>
       <c r="E454" t="s">
-        <v>417</v>
-      </c>
-    </row>
-    <row r="455" spans="1:5">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="455" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A455">
         <v>2</v>
       </c>
@@ -9411,10 +9429,10 @@
         <v>84</v>
       </c>
       <c r="E455" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="456" spans="1:5">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="456" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A456">
         <v>2</v>
       </c>
@@ -9428,10 +9446,10 @@
         <v>84</v>
       </c>
       <c r="E456" t="s">
-        <v>418</v>
-      </c>
-    </row>
-    <row r="457" spans="1:5">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="457" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A457">
         <v>2</v>
       </c>
@@ -9445,10 +9463,10 @@
         <v>84</v>
       </c>
       <c r="E457" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="458" spans="1:5">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="458" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A458">
         <v>2</v>
       </c>
@@ -9462,10 +9480,10 @@
         <v>84</v>
       </c>
       <c r="E458" t="s">
-        <v>419</v>
-      </c>
-    </row>
-    <row r="459" spans="1:5">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="459" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A459">
         <v>2</v>
       </c>
@@ -9479,10 +9497,10 @@
         <v>84</v>
       </c>
       <c r="E459" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="460" spans="1:5">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="460" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A460">
         <v>2</v>
       </c>
@@ -9496,10 +9514,10 @@
         <v>84</v>
       </c>
       <c r="E460" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="461" spans="1:5">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="461" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A461">
         <v>2</v>
       </c>
@@ -9513,10 +9531,10 @@
         <v>84</v>
       </c>
       <c r="E461" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="462" spans="1:5">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="462" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A462">
         <v>2</v>
       </c>
@@ -9530,10 +9548,10 @@
         <v>84</v>
       </c>
       <c r="E462" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="463" spans="1:5">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="463" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A463">
         <v>2</v>
       </c>
@@ -9547,10 +9565,10 @@
         <v>84</v>
       </c>
       <c r="E463" t="s">
-        <v>411</v>
-      </c>
-    </row>
-    <row r="464" spans="1:5">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="464" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A464">
         <v>2</v>
       </c>
@@ -9564,10 +9582,10 @@
         <v>84</v>
       </c>
       <c r="E464" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="465" spans="1:5">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="465" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A465">
         <v>2</v>
       </c>
@@ -9581,10 +9599,10 @@
         <v>86</v>
       </c>
       <c r="E465" t="s">
-        <v>420</v>
-      </c>
-    </row>
-    <row r="466" spans="1:5">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="466" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A466">
         <v>2</v>
       </c>
@@ -9598,10 +9616,10 @@
         <v>86</v>
       </c>
       <c r="E466" t="s">
-        <v>421</v>
-      </c>
-    </row>
-    <row r="467" spans="1:5">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="467" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A467">
         <v>2</v>
       </c>
@@ -9615,10 +9633,10 @@
         <v>86</v>
       </c>
       <c r="E467" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="468" spans="1:5">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="468" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A468">
         <v>2</v>
       </c>
@@ -9632,10 +9650,10 @@
         <v>86</v>
       </c>
       <c r="E468" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="469" spans="1:5">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="469" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A469">
         <v>2</v>
       </c>
@@ -9649,10 +9667,10 @@
         <v>86</v>
       </c>
       <c r="E469" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="470" spans="1:5">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="470" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A470">
         <v>2</v>
       </c>
@@ -9666,10 +9684,10 @@
         <v>86</v>
       </c>
       <c r="E470" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="471" spans="1:5">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="471" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A471">
         <v>2</v>
       </c>
@@ -9683,10 +9701,10 @@
         <v>86</v>
       </c>
       <c r="E471" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="472" spans="1:5">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="472" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A472">
         <v>2</v>
       </c>
@@ -9700,10 +9718,10 @@
         <v>86</v>
       </c>
       <c r="E472" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="473" spans="1:5">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="473" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A473">
         <v>2</v>
       </c>
@@ -9717,10 +9735,10 @@
         <v>86</v>
       </c>
       <c r="E473" t="s">
-        <v>376</v>
-      </c>
-    </row>
-    <row r="474" spans="1:5">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="474" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A474">
         <v>2</v>
       </c>
@@ -9734,10 +9752,10 @@
         <v>86</v>
       </c>
       <c r="E474" t="s">
-        <v>422</v>
-      </c>
-    </row>
-    <row r="475" spans="1:5">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="475" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A475">
         <v>2</v>
       </c>
@@ -9751,10 +9769,10 @@
         <v>86</v>
       </c>
       <c r="E475" t="s">
-        <v>422</v>
-      </c>
-    </row>
-    <row r="476" spans="1:5">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="476" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A476">
         <v>2</v>
       </c>
@@ -9768,10 +9786,10 @@
         <v>86</v>
       </c>
       <c r="E476" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="477" spans="1:5">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="477" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A477">
         <v>2</v>
       </c>
@@ -9785,10 +9803,10 @@
         <v>86</v>
       </c>
       <c r="E477" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="478" spans="1:5">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="478" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A478">
         <v>2</v>
       </c>
@@ -9802,10 +9820,10 @@
         <v>88</v>
       </c>
       <c r="E478" t="s">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="479" spans="1:5">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="479" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A479">
         <v>2</v>
       </c>
@@ -9819,10 +9837,10 @@
         <v>88</v>
       </c>
       <c r="E479" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="480" spans="1:5">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="480" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A480">
         <v>2</v>
       </c>
@@ -9836,10 +9854,10 @@
         <v>88</v>
       </c>
       <c r="E480" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="481" spans="1:5">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="481" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A481">
         <v>2</v>
       </c>
@@ -9853,10 +9871,10 @@
         <v>88</v>
       </c>
       <c r="E481" t="s">
-        <v>415</v>
-      </c>
-    </row>
-    <row r="482" spans="1:5">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="482" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A482">
         <v>2</v>
       </c>
@@ -9870,10 +9888,10 @@
         <v>88</v>
       </c>
       <c r="E482" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="483" spans="1:5">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="483" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A483">
         <v>2</v>
       </c>
@@ -9887,10 +9905,10 @@
         <v>88</v>
       </c>
       <c r="E483" t="s">
-        <v>354</v>
-      </c>
-    </row>
-    <row r="484" spans="1:5">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="484" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A484">
         <v>2</v>
       </c>
@@ -9904,10 +9922,10 @@
         <v>88</v>
       </c>
       <c r="E484" t="s">
-        <v>413</v>
-      </c>
-    </row>
-    <row r="485" spans="1:5">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="485" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A485">
         <v>2</v>
       </c>
@@ -9921,10 +9939,10 @@
         <v>88</v>
       </c>
       <c r="E485" t="s">
-        <v>364</v>
-      </c>
-    </row>
-    <row r="486" spans="1:5">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="486" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A486">
         <v>2</v>
       </c>
@@ -9938,10 +9956,10 @@
         <v>88</v>
       </c>
       <c r="E486" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="487" spans="1:5">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="487" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A487">
         <v>2</v>
       </c>
@@ -9955,10 +9973,10 @@
         <v>88</v>
       </c>
       <c r="E487" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="488" spans="1:5">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="488" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A488">
         <v>2</v>
       </c>
@@ -9972,10 +9990,10 @@
         <v>88</v>
       </c>
       <c r="E488" t="s">
-        <v>424</v>
-      </c>
-    </row>
-    <row r="489" spans="1:5">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="489" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A489">
         <v>2</v>
       </c>
@@ -9989,10 +10007,10 @@
         <v>88</v>
       </c>
       <c r="E489" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="490" spans="1:5">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="490" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A490">
         <v>2</v>
       </c>
@@ -10006,10 +10024,10 @@
         <v>88</v>
       </c>
       <c r="E490" t="s">
-        <v>425</v>
-      </c>
-    </row>
-    <row r="491" spans="1:5">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="491" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A491">
         <v>2</v>
       </c>
@@ -10023,10 +10041,10 @@
         <v>88</v>
       </c>
       <c r="E491" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="492" spans="1:5">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="492" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A492">
         <v>2</v>
       </c>
@@ -10040,10 +10058,10 @@
         <v>88</v>
       </c>
       <c r="E492" t="s">
-        <v>385</v>
-      </c>
-    </row>
-    <row r="493" spans="1:5">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="493" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A493">
         <v>2</v>
       </c>
@@ -10057,10 +10075,10 @@
         <v>88</v>
       </c>
       <c r="E493" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="494" spans="1:5">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="494" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A494">
         <v>2</v>
       </c>
@@ -10074,10 +10092,10 @@
         <v>90</v>
       </c>
       <c r="E494" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="495" spans="1:5">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="495" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A495">
         <v>2</v>
       </c>
@@ -10091,10 +10109,10 @@
         <v>90</v>
       </c>
       <c r="E495" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="496" spans="1:5">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="496" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A496">
         <v>2</v>
       </c>
@@ -10108,10 +10126,10 @@
         <v>90</v>
       </c>
       <c r="E496" t="s">
-        <v>415</v>
-      </c>
-    </row>
-    <row r="497" spans="1:5">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="497" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A497">
         <v>2</v>
       </c>
@@ -10125,10 +10143,10 @@
         <v>91</v>
       </c>
       <c r="E497" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="498" spans="1:5">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="498" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A498">
         <v>2</v>
       </c>
@@ -10142,10 +10160,10 @@
         <v>92</v>
       </c>
       <c r="E498" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="499" spans="1:5">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="499" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A499">
         <v>2</v>
       </c>
@@ -10159,10 +10177,10 @@
         <v>92</v>
       </c>
       <c r="E499" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="500" spans="1:5">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="500" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A500">
         <v>2</v>
       </c>
@@ -10176,10 +10194,10 @@
         <v>92</v>
       </c>
       <c r="E500" t="s">
-        <v>426</v>
-      </c>
-    </row>
-    <row r="501" spans="1:5">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="501" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A501">
         <v>2</v>
       </c>
@@ -10193,10 +10211,10 @@
         <v>92</v>
       </c>
       <c r="E501" t="s">
-        <v>427</v>
-      </c>
-    </row>
-    <row r="502" spans="1:5">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="502" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A502">
         <v>2</v>
       </c>
@@ -10210,10 +10228,10 @@
         <v>92</v>
       </c>
       <c r="E502" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="503" spans="1:5">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="503" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A503">
         <v>2</v>
       </c>
@@ -10227,10 +10245,10 @@
         <v>92</v>
       </c>
       <c r="E503" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="504" spans="1:5">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="504" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A504">
         <v>2</v>
       </c>
@@ -10244,10 +10262,10 @@
         <v>92</v>
       </c>
       <c r="E504" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="505" spans="1:5">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="505" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A505">
         <v>2</v>
       </c>
@@ -10261,10 +10279,10 @@
         <v>92</v>
       </c>
       <c r="E505" t="s">
-        <v>428</v>
-      </c>
-    </row>
-    <row r="506" spans="1:5">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="506" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A506">
         <v>2</v>
       </c>
@@ -10278,10 +10296,10 @@
         <v>92</v>
       </c>
       <c r="E506" t="s">
-        <v>429</v>
-      </c>
-    </row>
-    <row r="507" spans="1:5">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="507" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A507">
         <v>2</v>
       </c>
@@ -10295,10 +10313,10 @@
         <v>92</v>
       </c>
       <c r="E507" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="508" spans="1:5">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="508" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A508">
         <v>2</v>
       </c>
@@ -10312,10 +10330,10 @@
         <v>92</v>
       </c>
       <c r="E508" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="509" spans="1:5">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="509" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A509">
         <v>2</v>
       </c>
@@ -10329,10 +10347,10 @@
         <v>92</v>
       </c>
       <c r="E509" t="s">
-        <v>430</v>
-      </c>
-    </row>
-    <row r="510" spans="1:5">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="510" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A510">
         <v>2</v>
       </c>
@@ -10346,10 +10364,10 @@
         <v>92</v>
       </c>
       <c r="E510" t="s">
-        <v>398</v>
-      </c>
-    </row>
-    <row r="511" spans="1:5">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="511" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A511">
         <v>2</v>
       </c>
@@ -10363,10 +10381,10 @@
         <v>92</v>
       </c>
       <c r="E511" t="s">
-        <v>398</v>
-      </c>
-    </row>
-    <row r="512" spans="1:5">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="512" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A512">
         <v>2</v>
       </c>
@@ -10380,10 +10398,10 @@
         <v>92</v>
       </c>
       <c r="E512" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="513" spans="1:5">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="513" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A513">
         <v>2</v>
       </c>
@@ -10397,10 +10415,10 @@
         <v>92</v>
       </c>
       <c r="E513" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="514" spans="1:5">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="514" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A514">
         <v>2</v>
       </c>
@@ -10414,10 +10432,10 @@
         <v>92</v>
       </c>
       <c r="E514" t="s">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="515" spans="1:5">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="515" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A515">
         <v>2</v>
       </c>
@@ -10431,10 +10449,10 @@
         <v>92</v>
       </c>
       <c r="E515" t="s">
-        <v>431</v>
-      </c>
-    </row>
-    <row r="516" spans="1:5">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="516" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A516">
         <v>2</v>
       </c>
@@ -10448,10 +10466,10 @@
         <v>92</v>
       </c>
       <c r="E516" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="517" spans="1:5">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="517" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A517">
         <v>2</v>
       </c>
@@ -10465,10 +10483,10 @@
         <v>92</v>
       </c>
       <c r="E517" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="518" spans="1:5">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="518" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A518">
         <v>2</v>
       </c>
@@ -10482,10 +10500,10 @@
         <v>92</v>
       </c>
       <c r="E518" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="519" spans="1:5">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="519" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A519">
         <v>2</v>
       </c>
@@ -10499,10 +10517,10 @@
         <v>92</v>
       </c>
       <c r="E519" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="520" spans="1:5">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="520" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A520">
         <v>2</v>
       </c>
@@ -10516,10 +10534,10 @@
         <v>92</v>
       </c>
       <c r="E520" t="s">
-        <v>431</v>
-      </c>
-    </row>
-    <row r="521" spans="1:5">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="521" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A521">
         <v>2</v>
       </c>
@@ -10533,10 +10551,10 @@
         <v>92</v>
       </c>
       <c r="E521" t="s">
-        <v>432</v>
-      </c>
-    </row>
-    <row r="522" spans="1:5">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="522" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A522">
         <v>2</v>
       </c>
@@ -10550,10 +10568,10 @@
         <v>92</v>
       </c>
       <c r="E522" t="s">
-        <v>433</v>
-      </c>
-    </row>
-    <row r="523" spans="1:5">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="523" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A523">
         <v>2</v>
       </c>
@@ -10567,7 +10585,7 @@
         <v>92</v>
       </c>
       <c r="E523" t="s">
-        <v>433</v>
+        <v>329</v>
       </c>
     </row>
   </sheetData>
